--- a/docs/Статистика по команде.xlsx
+++ b/docs/Статистика по команде.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Политех\Проект PicHub\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PicHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B2ECCD-AFD7-4AC8-8F59-B9527E6D24D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A393FBDC-94CD-48A3-98CC-279C4C201D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>Барышников Илья</t>
   </si>
@@ -236,9 +236,6 @@
     <t>Особых</t>
   </si>
   <si>
-    <t>Figma страница друзей ???</t>
-  </si>
-  <si>
     <t>Ганта итог</t>
   </si>
   <si>
@@ -273,6 +270,12 @@
   </si>
   <si>
     <t>Итоги задач</t>
+  </si>
+  <si>
+    <t>Figma страница друзей</t>
+  </si>
+  <si>
+    <t>Figma страница добавления достижений</t>
   </si>
 </sst>
 </file>
@@ -1216,21 +1219,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB3E128-4FA6-4B2E-888B-7DF6C459E43A}">
-  <dimension ref="A1:BI25"/>
+  <dimension ref="A1:BJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="44" width="2.85546875" customWidth="1"/>
-    <col min="45" max="48" width="6.28515625" customWidth="1"/>
-    <col min="49" max="60" width="2.7109375" customWidth="1"/>
+    <col min="2" max="45" width="2.85546875" customWidth="1"/>
+    <col min="46" max="49" width="6.28515625" customWidth="1"/>
+    <col min="50" max="61" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>28</v>
       </c>
@@ -1248,11 +1251,11 @@
       <c r="K1" s="85"/>
       <c r="L1" s="85"/>
       <c r="M1" s="85"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="83" t="s">
+      <c r="N1" s="85"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="85"/>
       <c r="Q1" s="85"/>
       <c r="R1" s="85"/>
       <c r="S1" s="85"/>
@@ -1260,11 +1263,11 @@
       <c r="U1" s="85"/>
       <c r="V1" s="85"/>
       <c r="W1" s="85"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="89" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="90"/>
       <c r="AA1" s="90"/>
       <c r="AB1" s="90"/>
       <c r="AC1" s="90"/>
@@ -1282,14 +1285,14 @@
       <c r="AO1" s="90"/>
       <c r="AP1" s="90"/>
       <c r="AQ1" s="90"/>
-      <c r="AR1" s="91"/>
-      <c r="AS1" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT1" s="76"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="75" t="s">
+        <v>77</v>
+      </c>
       <c r="AU1" s="76"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="21"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="77"/>
       <c r="AX1" s="21"/>
       <c r="AY1" s="21"/>
       <c r="AZ1" s="21"/>
@@ -1301,8 +1304,9 @@
       <c r="BF1" s="21"/>
       <c r="BG1" s="21"/>
       <c r="BH1" s="21"/>
-    </row>
-    <row r="2" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BI1" s="21"/>
+    </row>
+    <row r="2" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="87"/>
@@ -1316,9 +1320,9 @@
       <c r="K2" s="87"/>
       <c r="L2" s="87"/>
       <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="84"/>
       <c r="Q2" s="87"/>
       <c r="R2" s="87"/>
       <c r="S2" s="87"/>
@@ -1326,11 +1330,11 @@
       <c r="U2" s="87"/>
       <c r="V2" s="87"/>
       <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="89" t="s">
+      <c r="X2" s="87"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="90"/>
       <c r="AA2" s="90"/>
       <c r="AB2" s="90"/>
       <c r="AC2" s="90"/>
@@ -1339,24 +1343,25 @@
       <c r="AF2" s="90"/>
       <c r="AG2" s="90"/>
       <c r="AH2" s="90"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="92" t="s">
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="93"/>
       <c r="AL2" s="93"/>
       <c r="AM2" s="93"/>
       <c r="AN2" s="93"/>
       <c r="AO2" s="93"/>
       <c r="AP2" s="93"/>
       <c r="AQ2" s="93"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="79"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="78"/>
       <c r="AU2" s="79"/>
-      <c r="AV2" s="80"/>
-    </row>
-    <row r="3" spans="1:61" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="80"/>
+    </row>
+    <row r="3" spans="1:62" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1376,141 +1381,144 @@
         <v>62</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AI3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD3" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE3" s="36" t="s">
+      <c r="AR3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT3" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU3" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="AF3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH3" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ3" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS3" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT3" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU3" s="44" t="s">
+      <c r="AV3" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" s="45" t="s">
+      <c r="AW3" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="BB3" s="23"/>
       <c r="BC3" s="23"/>
       <c r="BD3" s="23"/>
       <c r="BE3" s="23"/>
       <c r="BF3" s="23"/>
       <c r="BG3" s="23"/>
       <c r="BH3" s="23"/>
-      <c r="BI3" s="30"/>
-    </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="30"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1522,17 +1530,17 @@
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
-      <c r="J4" s="66">
-        <v>1</v>
-      </c>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="66">
+        <v>1</v>
+      </c>
       <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="62">
-        <v>1</v>
-      </c>
-      <c r="P4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="62">
+        <v>1</v>
+      </c>
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
       <c r="S4" s="52"/>
@@ -1540,35 +1548,33 @@
       <c r="U4" s="52"/>
       <c r="V4" s="52"/>
       <c r="W4" s="52"/>
-      <c r="X4" s="52">
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52">
         <v>5</v>
       </c>
-      <c r="Y4" s="52"/>
       <c r="Z4" s="52"/>
       <c r="AA4" s="52"/>
       <c r="AB4" s="52"/>
       <c r="AC4" s="52"/>
       <c r="AD4" s="52"/>
-      <c r="AE4" s="52">
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52">
         <v>5</v>
       </c>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52">
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52">
         <v>5</v>
       </c>
-      <c r="AH4" s="52"/>
       <c r="AI4" s="52"/>
-      <c r="AJ4" s="43">
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="43">
         <v>6</v>
-      </c>
-      <c r="AK4" s="43">
-        <v>0</v>
       </c>
       <c r="AL4" s="43">
         <v>0</v>
       </c>
       <c r="AM4" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN4" s="43">
         <v>0</v>
@@ -1580,28 +1586,30 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="43">
         <v>5</v>
       </c>
-      <c r="AR4" s="43">
+      <c r="AS4" s="43">
         <v>0</v>
       </c>
-      <c r="AS4" s="67">
-        <f t="shared" ref="AS4:AS11" si="0">COUNTIF(B4:AR4, "&gt; 5")</f>
-        <v>1</v>
-      </c>
-      <c r="AT4" s="59">
-        <f t="shared" ref="AT4:AT11" si="1">COUNTIF(B4:AR4, "&gt; 1")</f>
-        <v>5</v>
-      </c>
-      <c r="AU4" s="70">
-        <f t="shared" ref="AU4:AU11" si="2">COUNTIF(B4:AR4, "1")</f>
+      <c r="AT4" s="67">
+        <f t="shared" ref="AT4:AT11" si="0">COUNTIF(B4:AS4, "&gt; 5")</f>
+        <v>1</v>
+      </c>
+      <c r="AU4" s="59">
+        <f t="shared" ref="AU4:AU11" si="1">COUNTIF(B4:AS4, "&gt; 1")</f>
+        <v>6</v>
+      </c>
+      <c r="AV4" s="70">
+        <f t="shared" ref="AV4:AV11" si="2">COUNTIF(B4:AS4, "1")</f>
         <v>2</v>
       </c>
-      <c r="AV4" s="48">
-        <f t="shared" ref="AV4:AV11" si="3">ROUND(SUMIF(B4:AR4, "&gt; 1") / AT4, 2) + AU4 * 0.1</f>
-        <v>5.4</v>
-      </c>
-      <c r="BA4" s="16"/>
+      <c r="AW4" s="48">
+        <f t="shared" ref="AW4:AW11" si="3">ROUND(SUMIF(B4:AS4, "&gt; 1") / AU4, 2) + AV4 * 0.1</f>
+        <v>5.37</v>
+      </c>
       <c r="BB4" s="16"/>
       <c r="BC4" s="16"/>
       <c r="BD4" s="16"/>
@@ -1609,8 +1617,9 @@
       <c r="BF4" s="16"/>
       <c r="BG4" s="16"/>
       <c r="BH4" s="16"/>
-    </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI4" s="16"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1625,31 +1634,31 @@
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43">
+      <c r="M5" s="43"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43">
         <v>5.5</v>
       </c>
-      <c r="P5" s="63">
-        <v>1</v>
-      </c>
       <c r="Q5" s="63">
         <v>1</v>
       </c>
       <c r="R5" s="63">
+        <v>1</v>
+      </c>
+      <c r="S5" s="63">
         <v>0</v>
       </c>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63">
-        <v>5</v>
-      </c>
+      <c r="T5" s="63"/>
       <c r="U5" s="63">
         <v>5</v>
       </c>
-      <c r="V5" s="43">
+      <c r="V5" s="63">
         <v>5</v>
       </c>
-      <c r="W5" s="43"/>
+      <c r="W5" s="43">
+        <v>5</v>
+      </c>
       <c r="X5" s="43"/>
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
@@ -1670,26 +1679,26 @@
       <c r="AO5" s="43"/>
       <c r="AP5" s="43"/>
       <c r="AQ5" s="43"/>
-      <c r="AR5" s="63">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="68">
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="63">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AT5" s="60">
+      <c r="AU5" s="60">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AU5" s="71">
+      <c r="AV5" s="71">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AV5" s="49">
+      <c r="AW5" s="49">
         <f t="shared" si="3"/>
         <v>5.43</v>
       </c>
-      <c r="BA5" s="16"/>
       <c r="BB5" s="16"/>
       <c r="BC5" s="16"/>
       <c r="BD5" s="16"/>
@@ -1697,8 +1706,9 @@
       <c r="BF5" s="16"/>
       <c r="BG5" s="16"/>
       <c r="BH5" s="16"/>
-    </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI5" s="16"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -1716,20 +1726,20 @@
       <c r="G6" s="43"/>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
-      <c r="J6" s="43">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43">
         <v>5</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43">
-        <v>5</v>
-      </c>
+      <c r="L6" s="43"/>
       <c r="M6" s="43">
         <v>5</v>
       </c>
       <c r="N6" s="43">
+        <v>5</v>
+      </c>
+      <c r="O6" s="43">
         <v>0</v>
       </c>
-      <c r="O6" s="43"/>
       <c r="P6" s="43"/>
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
@@ -1737,10 +1747,10 @@
       <c r="T6" s="43"/>
       <c r="U6" s="43"/>
       <c r="V6" s="43"/>
-      <c r="W6" s="43">
+      <c r="W6" s="43"/>
+      <c r="X6" s="43">
         <v>5.5</v>
       </c>
-      <c r="X6" s="43"/>
       <c r="Y6" s="43"/>
       <c r="Z6" s="43"/>
       <c r="AA6" s="43"/>
@@ -1760,32 +1770,33 @@
       <c r="AO6" s="43"/>
       <c r="AP6" s="43"/>
       <c r="AQ6" s="43"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="68">
+      <c r="AR6" s="43"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="68">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AT6" s="60">
+      <c r="AU6" s="60">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AU6" s="71">
+      <c r="AV6" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AV6" s="49">
+      <c r="AW6" s="49">
         <f t="shared" si="3"/>
         <v>5.21</v>
       </c>
-      <c r="BB6" s="16"/>
       <c r="BC6" s="16"/>
       <c r="BD6" s="16"/>
       <c r="BE6" s="16"/>
       <c r="BF6" s="16"/>
       <c r="BG6" s="16"/>
       <c r="BH6" s="16"/>
-    </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI6" s="16"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1801,15 +1812,15 @@
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <v>5</v>
-      </c>
+      <c r="J7" s="43"/>
       <c r="K7" s="43">
         <v>5</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="43"/>
+      <c r="L7" s="43">
+        <v>5</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="55"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="43"/>
@@ -1839,24 +1850,24 @@
       <c r="AO7" s="43"/>
       <c r="AP7" s="43"/>
       <c r="AQ7" s="43"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="68">
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="55"/>
+      <c r="AT7" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AT7" s="60">
+      <c r="AU7" s="60">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AU7" s="71">
+      <c r="AV7" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AV7" s="49">
+      <c r="AW7" s="49">
         <f t="shared" si="3"/>
         <v>5.13</v>
       </c>
-      <c r="BA7" s="16"/>
       <c r="BB7" s="16"/>
       <c r="BC7" s="16"/>
       <c r="BD7" s="16"/>
@@ -1864,8 +1875,9 @@
       <c r="BF7" s="16"/>
       <c r="BG7" s="16"/>
       <c r="BH7" s="16"/>
-    </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI7" s="16"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -1880,8 +1892,8 @@
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="43"/>
@@ -1892,13 +1904,13 @@
       <c r="V8" s="43"/>
       <c r="W8" s="43"/>
       <c r="X8" s="43"/>
-      <c r="Y8" s="43">
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43">
         <v>5</v>
       </c>
-      <c r="Z8" s="63">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="43"/>
+      <c r="AA8" s="63">
+        <v>1</v>
+      </c>
       <c r="AB8" s="43"/>
       <c r="AC8" s="43"/>
       <c r="AD8" s="43"/>
@@ -1915,24 +1927,24 @@
       <c r="AO8" s="43"/>
       <c r="AP8" s="43"/>
       <c r="AQ8" s="43"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="68">
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT8" s="60">
+      <c r="AU8" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AU8" s="71">
+      <c r="AV8" s="71">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AV8" s="49">
+      <c r="AW8" s="49">
         <f t="shared" si="3"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="BA8" s="16"/>
       <c r="BB8" s="16"/>
       <c r="BC8" s="16"/>
       <c r="BD8" s="16"/>
@@ -1940,8 +1952,9 @@
       <c r="BF8" s="16"/>
       <c r="BG8" s="16"/>
       <c r="BH8" s="16"/>
-    </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI8" s="16"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1956,8 +1969,8 @@
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="55"/>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="43"/>
@@ -1968,27 +1981,27 @@
       <c r="V9" s="43"/>
       <c r="W9" s="43"/>
       <c r="X9" s="43"/>
-      <c r="Y9" s="63">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="43"/>
       <c r="Z9" s="63">
         <v>1</v>
       </c>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="25">
+      <c r="AA9" s="63">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="25">
         <v>5.5</v>
       </c>
-      <c r="AC9" s="43">
+      <c r="AD9" s="43">
         <v>4.25</v>
       </c>
-      <c r="AD9" s="43"/>
       <c r="AE9" s="43"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="43"/>
-      <c r="AH9" s="43">
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43">
         <v>5</v>
       </c>
-      <c r="AI9" s="43"/>
       <c r="AJ9" s="43"/>
       <c r="AK9" s="43"/>
       <c r="AL9" s="43"/>
@@ -1997,24 +2010,24 @@
       <c r="AO9" s="43"/>
       <c r="AP9" s="43"/>
       <c r="AQ9" s="43"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="68">
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AT9" s="60">
+      <c r="AU9" s="60">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AU9" s="71">
+      <c r="AV9" s="71">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AV9" s="49">
+      <c r="AW9" s="49">
         <f t="shared" si="3"/>
         <v>5.12</v>
       </c>
-      <c r="BA9" s="16"/>
       <c r="BB9" s="16"/>
       <c r="BC9" s="16"/>
       <c r="BD9" s="16"/>
@@ -2022,8 +2035,9 @@
       <c r="BF9" s="16"/>
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
-    </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BI9" s="16"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -2038,8 +2052,8 @@
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="55"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
@@ -2050,13 +2064,13 @@
       <c r="V10" s="43"/>
       <c r="W10" s="43"/>
       <c r="X10" s="43"/>
-      <c r="Y10" s="43">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="43"/>
       <c r="Z10" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="43">
         <v>5</v>
       </c>
-      <c r="AA10" s="43"/>
       <c r="AB10" s="43"/>
       <c r="AC10" s="43"/>
       <c r="AD10" s="43"/>
@@ -2073,24 +2087,24 @@
       <c r="AO10" s="43"/>
       <c r="AP10" s="43"/>
       <c r="AQ10" s="43"/>
-      <c r="AR10" s="55"/>
-      <c r="AS10" s="68">
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT10" s="60">
+      <c r="AU10" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AU10" s="71">
+      <c r="AV10" s="71">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AV10" s="49">
+      <c r="AW10" s="49">
         <f t="shared" si="3"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="BA10" s="16"/>
       <c r="BB10" s="16"/>
       <c r="BC10" s="16"/>
       <c r="BD10" s="16"/>
@@ -2098,8 +2112,9 @@
       <c r="BF10" s="16"/>
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
-    </row>
-    <row r="11" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BI10" s="16"/>
+    </row>
+    <row r="11" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -2114,26 +2129,26 @@
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
       <c r="O11" s="57"/>
-      <c r="P11" s="57">
-        <v>4</v>
-      </c>
+      <c r="P11" s="57"/>
       <c r="Q11" s="57">
         <v>4</v>
       </c>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57">
+      <c r="R11" s="57">
+        <v>4</v>
+      </c>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57">
         <v>0</v>
       </c>
-      <c r="T11" s="57">
+      <c r="U11" s="57">
         <v>5</v>
       </c>
-      <c r="U11" s="57">
-        <v>1</v>
-      </c>
-      <c r="V11" s="57"/>
+      <c r="V11" s="57">
+        <v>1</v>
+      </c>
       <c r="W11" s="57"/>
       <c r="X11" s="57"/>
       <c r="Y11" s="57"/>
@@ -2155,24 +2170,24 @@
       <c r="AO11" s="57"/>
       <c r="AP11" s="57"/>
       <c r="AQ11" s="57"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="69">
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT11" s="61">
+      <c r="AU11" s="61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AU11" s="47">
+      <c r="AV11" s="47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AV11" s="50">
+      <c r="AW11" s="50">
         <f t="shared" si="3"/>
         <v>4.43</v>
       </c>
-      <c r="BA11" s="16"/>
       <c r="BB11" s="16"/>
       <c r="BC11" s="16"/>
       <c r="BD11" s="16"/>
@@ -2180,9 +2195,9 @@
       <c r="BF11" s="16"/>
       <c r="BG11" s="16"/>
       <c r="BH11" s="16"/>
-    </row>
-    <row r="13" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AT13" s="21"/>
+      <c r="BI11" s="16"/>
+    </row>
+    <row r="13" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AU13" s="21"/>
       <c r="AV13" s="21"/>
       <c r="AW13" s="21"/>
@@ -2197,8 +2212,9 @@
       <c r="BF13" s="21"/>
       <c r="BG13" s="21"/>
       <c r="BH13" s="21"/>
-    </row>
-    <row r="14" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BI13" s="21"/>
+    </row>
+    <row r="14" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="97" t="s">
         <v>60</v>
       </c>
@@ -2225,9 +2241,10 @@
       <c r="W14" s="98"/>
       <c r="X14" s="98"/>
       <c r="Y14" s="98"/>
-      <c r="Z14" s="99"/>
-    </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="99"/>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
       <c r="C15" s="100" t="s">
         <v>23</v>
@@ -2254,9 +2271,10 @@
       <c r="W15" s="100"/>
       <c r="X15" s="100"/>
       <c r="Y15" s="100"/>
-      <c r="Z15" s="101"/>
-    </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="Z15" s="100"/>
+      <c r="AA15" s="101"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="81" t="s">
         <v>24</v>
@@ -2283,9 +2301,10 @@
       <c r="W16" s="81"/>
       <c r="X16" s="81"/>
       <c r="Y16" s="81"/>
-      <c r="Z16" s="82"/>
-    </row>
-    <row r="17" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="82"/>
+    </row>
+    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="81" t="s">
         <v>25</v>
@@ -2312,9 +2331,10 @@
       <c r="W17" s="81"/>
       <c r="X17" s="81"/>
       <c r="Y17" s="81"/>
-      <c r="Z17" s="82"/>
-    </row>
-    <row r="18" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="82"/>
+    </row>
+    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="81" t="s">
         <v>63</v>
@@ -2341,9 +2361,10 @@
       <c r="W18" s="81"/>
       <c r="X18" s="81"/>
       <c r="Y18" s="81"/>
-      <c r="Z18" s="82"/>
-    </row>
-    <row r="19" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="82"/>
+    </row>
+    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
       <c r="C19" s="81" t="s">
         <v>26</v>
@@ -2370,9 +2391,10 @@
       <c r="W19" s="81"/>
       <c r="X19" s="81"/>
       <c r="Y19" s="81"/>
-      <c r="Z19" s="82"/>
-    </row>
-    <row r="20" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="82"/>
+    </row>
+    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
       <c r="C20" s="81" t="s">
         <v>56</v>
@@ -2399,8 +2421,8 @@
       <c r="W20" s="81"/>
       <c r="X20" s="81"/>
       <c r="Y20" s="81"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="21"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="82"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
       <c r="AD20" s="21"/>
@@ -2419,7 +2441,7 @@
       <c r="AQ20" s="21"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
-      <c r="AT20" s="29"/>
+      <c r="AT20" s="21"/>
       <c r="AU20" s="29"/>
       <c r="AV20" s="29"/>
       <c r="AW20" s="29"/>
@@ -2434,11 +2456,12 @@
       <c r="BF20" s="29"/>
       <c r="BG20" s="29"/>
       <c r="BH20" s="29"/>
-    </row>
-    <row r="21" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BI20" s="29"/>
+    </row>
+    <row r="21" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
       <c r="C21" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="95"/>
       <c r="E21" s="95"/>
@@ -2462,8 +2485,8 @@
       <c r="W21" s="95"/>
       <c r="X21" s="95"/>
       <c r="Y21" s="95"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="39"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="96"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="39"/>
       <c r="AD21" s="39"/>
@@ -2482,7 +2505,7 @@
       <c r="AQ21" s="39"/>
       <c r="AR21" s="39"/>
       <c r="AS21" s="39"/>
-      <c r="AT21" s="29"/>
+      <c r="AT21" s="39"/>
       <c r="AU21" s="29"/>
       <c r="AV21" s="29"/>
       <c r="AW21" s="29"/>
@@ -2497,8 +2520,9 @@
       <c r="BF21" s="29"/>
       <c r="BG21" s="29"/>
       <c r="BH21" s="29"/>
-    </row>
-    <row r="22" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BI21" s="29"/>
+    </row>
+    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -2543,7 +2567,7 @@
       <c r="AQ22" s="39"/>
       <c r="AR22" s="39"/>
       <c r="AS22" s="39"/>
-      <c r="AT22" s="29"/>
+      <c r="AT22" s="39"/>
       <c r="AU22" s="29"/>
       <c r="AV22" s="29"/>
       <c r="AW22" s="29"/>
@@ -2558,8 +2582,9 @@
       <c r="BF22" s="29"/>
       <c r="BG22" s="29"/>
       <c r="BH22" s="29"/>
-    </row>
-    <row r="23" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BI22" s="29"/>
+    </row>
+    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -2604,7 +2629,7 @@
       <c r="AQ23" s="39"/>
       <c r="AR23" s="39"/>
       <c r="AS23" s="39"/>
-      <c r="AT23" s="29"/>
+      <c r="AT23" s="39"/>
       <c r="AU23" s="29"/>
       <c r="AV23" s="29"/>
       <c r="AW23" s="29"/>
@@ -2619,8 +2644,9 @@
       <c r="BF23" s="29"/>
       <c r="BG23" s="29"/>
       <c r="BH23" s="29"/>
-    </row>
-    <row r="24" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BI23" s="29"/>
+    </row>
+    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
@@ -2665,8 +2691,9 @@
       <c r="AQ24" s="39"/>
       <c r="AR24" s="39"/>
       <c r="AS24" s="39"/>
-    </row>
-    <row r="25" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="AT24" s="39"/>
+    </row>
+    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -2711,26 +2738,27 @@
       <c r="AQ25" s="39"/>
       <c r="AR25" s="39"/>
       <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C21:Z21"/>
-    <mergeCell ref="C17:Z17"/>
-    <mergeCell ref="C18:Z18"/>
-    <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="C15:Z15"/>
-    <mergeCell ref="C16:Z16"/>
-    <mergeCell ref="AS1:AV2"/>
-    <mergeCell ref="C20:Z20"/>
+    <mergeCell ref="C21:AA21"/>
+    <mergeCell ref="C17:AA17"/>
+    <mergeCell ref="C18:AA18"/>
+    <mergeCell ref="C19:AA19"/>
+    <mergeCell ref="B14:AA14"/>
+    <mergeCell ref="C15:AA15"/>
+    <mergeCell ref="C16:AA16"/>
+    <mergeCell ref="AT1:AW2"/>
+    <mergeCell ref="C20:AA20"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:N2"/>
-    <mergeCell ref="O1:X2"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="Y1:AR1"/>
-    <mergeCell ref="AJ2:AR2"/>
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="P1:Y2"/>
+    <mergeCell ref="Z2:AJ2"/>
+    <mergeCell ref="Z1:AS1"/>
+    <mergeCell ref="AK2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:AR11">
+  <conditionalFormatting sqref="B4:AS11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>

--- a/docs/Статистика по команде.xlsx
+++ b/docs/Статистика по команде.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PicHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A393FBDC-94CD-48A3-98CC-279C4C201D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE28E216-F7F7-4F4F-8FCB-B860E8656368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t>Изменение профиля</t>
   </si>
   <si>
-    <t>Друзья</t>
-  </si>
-  <si>
     <t>Создание проекта</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>Понравившиеся</t>
   </si>
   <si>
-    <t>Раздел друзей</t>
-  </si>
-  <si>
     <t>Примечание: 1 помощь = 0,1 среднего балла</t>
   </si>
   <si>
@@ -276,6 +270,12 @@
   </si>
   <si>
     <t>Figma страница добавления достижений</t>
+  </si>
+  <si>
+    <t>Функционал подписок</t>
+  </si>
+  <si>
+    <t>Страница подписчиков</t>
   </si>
 </sst>
 </file>
@@ -813,6 +813,33 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -831,12 +858,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,27 +893,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,77 +1222,77 @@
   <dimension ref="A1:BJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="45" width="2.85546875" customWidth="1"/>
     <col min="46" max="49" width="6.28515625" customWidth="1"/>
     <col min="50" max="61" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="83" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="89" t="s">
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="91"/>
-      <c r="AT1" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="77"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="86"/>
       <c r="AX1" s="21"/>
       <c r="AY1" s="21"/>
       <c r="AZ1" s="21"/>
@@ -1307,59 +1307,59 @@
       <c r="BI1" s="21"/>
     </row>
     <row r="2" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="89" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="92" t="s">
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93"/>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="80"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="89"/>
     </row>
     <row r="3" spans="1:62" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -1378,19 +1378,19 @@
         <v>47</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>50</v>
@@ -1417,19 +1417,19 @@
         <v>15</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X3" s="18" t="s">
         <v>14</v>
@@ -1453,16 +1453,16 @@
         <v>22</v>
       </c>
       <c r="AE3" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF3" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AH3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AI3" s="36" t="s">
         <v>51</v>
@@ -1474,19 +1474,19 @@
         <v>11</v>
       </c>
       <c r="AL3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM3" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="AM3" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO3" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="AP3" s="17" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="AQ3" s="17" t="s">
         <v>48</v>
@@ -1498,16 +1498,16 @@
         <v>45</v>
       </c>
       <c r="AT3" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AU3" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AV3" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW3" s="45" t="s">
         <v>56</v>
-      </c>
-      <c r="AW3" s="45" t="s">
-        <v>57</v>
       </c>
       <c r="BC3" s="23"/>
       <c r="BD3" s="23"/>
@@ -1582,8 +1582,8 @@
       <c r="AO4" s="43">
         <v>0</v>
       </c>
-      <c r="AP4" s="43">
-        <v>0</v>
+      <c r="AP4" s="25">
+        <v>3</v>
       </c>
       <c r="AQ4" s="43">
         <v>0</v>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="AU4" s="59">
         <f t="shared" ref="AU4:AU11" si="1">COUNTIF(B4:AS4, "&gt; 1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV4" s="70">
         <f t="shared" ref="AV4:AV11" si="2">COUNTIF(B4:AS4, "1")</f>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="AW4" s="48">
         <f t="shared" ref="AW4:AW11" si="3">ROUND(SUMIF(B4:AS4, "&gt; 1") / AU4, 2) + AV4 * 0.1</f>
-        <v>5.37</v>
+        <v>5.0600000000000005</v>
       </c>
       <c r="BB4" s="16"/>
       <c r="BC4" s="16"/>
@@ -1677,7 +1677,9 @@
       <c r="AM5" s="43"/>
       <c r="AN5" s="43"/>
       <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
+      <c r="AP5" s="43">
+        <v>1</v>
+      </c>
       <c r="AQ5" s="43"/>
       <c r="AR5" s="43"/>
       <c r="AS5" s="63">
@@ -1693,11 +1695,11 @@
       </c>
       <c r="AV5" s="71">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW5" s="49">
         <f t="shared" si="3"/>
-        <v>5.43</v>
+        <v>5.53</v>
       </c>
       <c r="BB5" s="16"/>
       <c r="BC5" s="16"/>
@@ -2215,214 +2217,214 @@
       <c r="BI13" s="21"/>
     </row>
     <row r="14" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="99"/>
+      <c r="B14" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="81"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
-      <c r="AA15" s="101"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="83"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="82"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="78"/>
     </row>
     <row r="17" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="82"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="78"/>
     </row>
     <row r="18" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="82"/>
+      <c r="C18" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="78"/>
     </row>
     <row r="19" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="82"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="78"/>
     </row>
     <row r="20" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
-      <c r="C20" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="82"/>
+      <c r="C20" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="78"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
       <c r="AD20" s="21"/>
@@ -2460,33 +2462,33 @@
     </row>
     <row r="21" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
-      <c r="C21" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="96"/>
+      <c r="C21" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="76"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="39"/>
       <c r="AD21" s="39"/>
@@ -2742,13 +2744,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C21:AA21"/>
-    <mergeCell ref="C17:AA17"/>
-    <mergeCell ref="C18:AA18"/>
-    <mergeCell ref="C19:AA19"/>
-    <mergeCell ref="B14:AA14"/>
-    <mergeCell ref="C15:AA15"/>
-    <mergeCell ref="C16:AA16"/>
     <mergeCell ref="AT1:AW2"/>
     <mergeCell ref="C20:AA20"/>
     <mergeCell ref="A1:A2"/>
@@ -2757,6 +2752,13 @@
     <mergeCell ref="Z2:AJ2"/>
     <mergeCell ref="Z1:AS1"/>
     <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="C21:AA21"/>
+    <mergeCell ref="C17:AA17"/>
+    <mergeCell ref="C18:AA18"/>
+    <mergeCell ref="C19:AA19"/>
+    <mergeCell ref="B14:AA14"/>
+    <mergeCell ref="C15:AA15"/>
+    <mergeCell ref="C16:AA16"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:AS11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">

--- a/docs/Статистика по команде.xlsx
+++ b/docs/Статистика по команде.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PicHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE28E216-F7F7-4F4F-8FCB-B860E8656368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A13805-068C-44F1-AE06-95B70C76BE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь</author>
+  </authors>
+  <commentList>
+    <comment ref="AM3" authorId="0" shapeId="0" xr:uid="{D8DCEE99-EBC8-4E49-827A-2454BD639775}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Сделать возможность перетаскивания изображений для загрузки</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
   <si>
     <t>Барышников Илья</t>
   </si>
@@ -200,9 +224,6 @@
     <t>Создание проекта</t>
   </si>
   <si>
-    <t>Репозитории (коммы + лайки)</t>
-  </si>
-  <si>
     <t>Помощь</t>
   </si>
   <si>
@@ -275,14 +296,26 @@
     <t>Функционал подписок</t>
   </si>
   <si>
-    <t>Страница подписчиков</t>
+    <t>Встройка страницы проекта</t>
+  </si>
+  <si>
+    <t>Встройка страницы понравившихся</t>
+  </si>
+  <si>
+    <t>Встройка страницы друзей</t>
+  </si>
+  <si>
+    <t>Проект (коммы + лайки)</t>
+  </si>
+  <si>
+    <t>Всплывающее меню</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +405,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1218,22 +1258,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB3E128-4FA6-4B2E-888B-7DF6C459E43A}">
-  <dimension ref="A1:BJ25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB3E128-4FA6-4B2E-888B-7DF6C459E43A}">
+  <dimension ref="A1:BM25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="AS5" sqref="AS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="45" width="2.85546875" customWidth="1"/>
-    <col min="46" max="49" width="6.28515625" customWidth="1"/>
-    <col min="50" max="61" width="2.7109375" customWidth="1"/>
+    <col min="2" max="48" width="2.85546875" customWidth="1"/>
+    <col min="49" max="52" width="6.28515625" customWidth="1"/>
+    <col min="53" max="64" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
         <v>28</v>
       </c>
@@ -1286,16 +1326,16 @@
       <c r="AP1" s="97"/>
       <c r="AQ1" s="97"/>
       <c r="AR1" s="97"/>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="86"/>
       <c r="BA1" s="21"/>
       <c r="BB1" s="21"/>
       <c r="BC1" s="21"/>
@@ -1305,8 +1345,11 @@
       <c r="BG1" s="21"/>
       <c r="BH1" s="21"/>
       <c r="BI1" s="21"/>
-    </row>
-    <row r="2" spans="1:62" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+    </row>
+    <row r="2" spans="1:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="94"/>
@@ -1344,24 +1387,27 @@
       <c r="AG2" s="97"/>
       <c r="AH2" s="97"/>
       <c r="AI2" s="97"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="99" t="s">
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="100"/>
       <c r="AM2" s="100"/>
       <c r="AN2" s="100"/>
       <c r="AO2" s="100"/>
       <c r="AP2" s="100"/>
       <c r="AQ2" s="100"/>
       <c r="AR2" s="100"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="89"/>
-    </row>
-    <row r="3" spans="1:62" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="89"/>
+    </row>
+    <row r="3" spans="1:65" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1378,19 +1424,19 @@
         <v>47</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>50</v>
@@ -1417,19 +1463,19 @@
         <v>15</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X3" s="18" t="s">
         <v>14</v>
@@ -1443,7 +1489,7 @@
       <c r="AA3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="36" t="s">
         <v>48</v>
       </c>
       <c r="AC3" s="36" t="s">
@@ -1452,73 +1498,82 @@
       <c r="AD3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="17" t="s">
-        <v>70</v>
+      <c r="AE3" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="AF3" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH3" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO3" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP3" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ3" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX3" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH3" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI3" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM3" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AY3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="AP3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR3" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT3" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU3" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV3" s="44" t="s">
+      <c r="AZ3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="AW3" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC3" s="23"/>
-      <c r="BD3" s="23"/>
-      <c r="BE3" s="23"/>
       <c r="BF3" s="23"/>
       <c r="BG3" s="23"/>
       <c r="BH3" s="23"/>
       <c r="BI3" s="23"/>
-      <c r="BJ3" s="30"/>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BJ3" s="23"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="30"/>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1559,67 +1614,70 @@
       <c r="AD4" s="52"/>
       <c r="AE4" s="52"/>
       <c r="AF4" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="AG4" s="52">
         <v>5</v>
       </c>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52">
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52">
         <v>5</v>
       </c>
-      <c r="AI4" s="52"/>
       <c r="AJ4" s="52"/>
-      <c r="AK4" s="43">
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="43">
         <v>6</v>
-      </c>
-      <c r="AL4" s="43">
-        <v>0</v>
       </c>
       <c r="AM4" s="43">
         <v>5</v>
       </c>
       <c r="AN4" s="43">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="43">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="25">
-        <v>3</v>
-      </c>
-      <c r="AQ4" s="43">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="43">
         <v>5</v>
+      </c>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="25">
+        <v>2</v>
       </c>
       <c r="AS4" s="43">
         <v>0</v>
       </c>
-      <c r="AT4" s="67">
-        <f t="shared" ref="AT4:AT11" si="0">COUNTIF(B4:AS4, "&gt; 5")</f>
-        <v>1</v>
-      </c>
-      <c r="AU4" s="59">
-        <f t="shared" ref="AU4:AU11" si="1">COUNTIF(B4:AS4, "&gt; 1")</f>
-        <v>7</v>
-      </c>
-      <c r="AV4" s="70">
-        <f t="shared" ref="AV4:AV11" si="2">COUNTIF(B4:AS4, "1")</f>
+      <c r="AT4" s="25">
         <v>2</v>
       </c>
-      <c r="AW4" s="48">
-        <f t="shared" ref="AW4:AW11" si="3">ROUND(SUMIF(B4:AS4, "&gt; 1") / AU4, 2) + AV4 * 0.1</f>
-        <v>5.0600000000000005</v>
-      </c>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
+      <c r="AU4" s="43">
+        <v>5</v>
+      </c>
+      <c r="AV4" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW4" s="67">
+        <f t="shared" ref="AW4:AW11" si="0">COUNTIF(B4:AV4, "&gt; 5")</f>
+        <v>1</v>
+      </c>
+      <c r="AX4" s="59">
+        <f t="shared" ref="AX4:AX11" si="1">COUNTIF(B4:AV4, "&gt; 1")</f>
+        <v>11</v>
+      </c>
+      <c r="AY4" s="70">
+        <f t="shared" ref="AY4:AY11" si="2">COUNTIF(B4:AV4, "1")</f>
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="48">
+        <f t="shared" ref="AZ4:AZ11" si="3">ROUND(SUMIF(B4:AV4, "&gt; 1") / AX4, 2) + AY4 * 0.1</f>
+        <v>4.5200000000000005</v>
+      </c>
       <c r="BE4" s="16"/>
       <c r="BF4" s="16"/>
       <c r="BG4" s="16"/>
       <c r="BH4" s="16"/>
       <c r="BI4" s="16"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1676,41 +1734,48 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43"/>
       <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
+      <c r="AO5" s="43">
+        <v>5</v>
+      </c>
       <c r="AP5" s="43">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="43"/>
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="43">
+        <v>4</v>
+      </c>
       <c r="AR5" s="43"/>
-      <c r="AS5" s="63">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="68">
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="63">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AU5" s="60">
+      <c r="AX5" s="60">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AV5" s="71">
+        <v>7</v>
+      </c>
+      <c r="AY5" s="71">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AW5" s="49">
+        <v>3</v>
+      </c>
+      <c r="AZ5" s="49">
         <f t="shared" si="3"/>
-        <v>5.53</v>
-      </c>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="16"/>
-      <c r="BD5" s="16"/>
+        <v>5.2299999999999995</v>
+      </c>
       <c r="BE5" s="16"/>
       <c r="BF5" s="16"/>
       <c r="BG5" s="16"/>
       <c r="BH5" s="16"/>
       <c r="BI5" s="16"/>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BJ5" s="16"/>
+      <c r="BK5" s="16"/>
+      <c r="BL5" s="16"/>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -1773,32 +1838,35 @@
       <c r="AP6" s="43"/>
       <c r="AQ6" s="43"/>
       <c r="AR6" s="43"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="68">
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="43"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="68">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AU6" s="60">
+      <c r="AX6" s="60">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AV6" s="71">
+      <c r="AY6" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW6" s="49">
+      <c r="AZ6" s="49">
         <f t="shared" si="3"/>
         <v>5.21</v>
       </c>
-      <c r="BC6" s="16"/>
-      <c r="BD6" s="16"/>
-      <c r="BE6" s="16"/>
       <c r="BF6" s="16"/>
       <c r="BG6" s="16"/>
       <c r="BH6" s="16"/>
       <c r="BI6" s="16"/>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BJ6" s="16"/>
+      <c r="BK6" s="16"/>
+      <c r="BL6" s="16"/>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1853,33 +1921,36 @@
       <c r="AP7" s="43"/>
       <c r="AQ7" s="43"/>
       <c r="AR7" s="43"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="68">
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="55"/>
+      <c r="AW7" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AU7" s="60">
+      <c r="AX7" s="60">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AV7" s="71">
+      <c r="AY7" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW7" s="49">
+      <c r="AZ7" s="49">
         <f t="shared" si="3"/>
         <v>5.13</v>
       </c>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16"/>
       <c r="BE7" s="16"/>
       <c r="BF7" s="16"/>
       <c r="BG7" s="16"/>
       <c r="BH7" s="16"/>
       <c r="BI7" s="16"/>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -1913,7 +1984,9 @@
       <c r="AA8" s="63">
         <v>1</v>
       </c>
-      <c r="AB8" s="43"/>
+      <c r="AB8" s="43">
+        <v>4.5</v>
+      </c>
       <c r="AC8" s="43"/>
       <c r="AD8" s="43"/>
       <c r="AE8" s="43"/>
@@ -1922,7 +1995,9 @@
       <c r="AH8" s="43"/>
       <c r="AI8" s="43"/>
       <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
+      <c r="AK8" s="43">
+        <v>5</v>
+      </c>
       <c r="AL8" s="43"/>
       <c r="AM8" s="43"/>
       <c r="AN8" s="43"/>
@@ -1930,33 +2005,36 @@
       <c r="AP8" s="43"/>
       <c r="AQ8" s="43"/>
       <c r="AR8" s="43"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="68">
+      <c r="AS8" s="43"/>
+      <c r="AT8" s="43"/>
+      <c r="AU8" s="43"/>
+      <c r="AV8" s="55"/>
+      <c r="AW8" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AU8" s="60">
+      <c r="AX8" s="60">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AV8" s="71">
+        <v>3</v>
+      </c>
+      <c r="AY8" s="71">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AW8" s="49">
+      <c r="AZ8" s="49">
         <f t="shared" si="3"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="16"/>
+        <v>4.93</v>
+      </c>
       <c r="BE8" s="16"/>
       <c r="BF8" s="16"/>
       <c r="BG8" s="16"/>
       <c r="BH8" s="16"/>
       <c r="BI8" s="16"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1997,15 +2075,23 @@
       <c r="AD9" s="43">
         <v>4.25</v>
       </c>
-      <c r="AE9" s="43"/>
+      <c r="AE9" s="43">
+        <v>5</v>
+      </c>
       <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43">
+      <c r="AG9" s="43">
         <v>5</v>
       </c>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
+      <c r="AH9" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="43">
+        <v>1</v>
+      </c>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
       <c r="AN9" s="43"/>
@@ -2013,33 +2099,36 @@
       <c r="AP9" s="43"/>
       <c r="AQ9" s="43"/>
       <c r="AR9" s="43"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="68">
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="55"/>
+      <c r="AW9" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AU9" s="60">
+      <c r="AX9" s="60">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AY9" s="71">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AV9" s="71">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AW9" s="49">
+      <c r="AZ9" s="49">
         <f t="shared" si="3"/>
-        <v>5.12</v>
-      </c>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
+        <v>5.18</v>
+      </c>
       <c r="BE9" s="16"/>
       <c r="BF9" s="16"/>
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
       <c r="BI9" s="16"/>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -2073,7 +2162,9 @@
       <c r="AA10" s="43">
         <v>5</v>
       </c>
-      <c r="AB10" s="43"/>
+      <c r="AB10" s="43">
+        <v>4.5</v>
+      </c>
       <c r="AC10" s="43"/>
       <c r="AD10" s="43"/>
       <c r="AE10" s="43"/>
@@ -2082,7 +2173,9 @@
       <c r="AH10" s="43"/>
       <c r="AI10" s="43"/>
       <c r="AJ10" s="43"/>
-      <c r="AK10" s="43"/>
+      <c r="AK10" s="43">
+        <v>5</v>
+      </c>
       <c r="AL10" s="43"/>
       <c r="AM10" s="43"/>
       <c r="AN10" s="43"/>
@@ -2090,33 +2183,36 @@
       <c r="AP10" s="43"/>
       <c r="AQ10" s="43"/>
       <c r="AR10" s="43"/>
-      <c r="AS10" s="55"/>
-      <c r="AT10" s="68">
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="55"/>
+      <c r="AW10" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AU10" s="60">
+      <c r="AX10" s="60">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AV10" s="71">
+        <v>3</v>
+      </c>
+      <c r="AY10" s="71">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AW10" s="49">
+      <c r="AZ10" s="49">
         <f t="shared" si="3"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
+        <v>4.93</v>
+      </c>
       <c r="BE10" s="16"/>
       <c r="BF10" s="16"/>
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
       <c r="BI10" s="16"/>
-    </row>
-    <row r="11" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+    </row>
+    <row r="11" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -2143,7 +2239,7 @@
       </c>
       <c r="S11" s="57"/>
       <c r="T11" s="57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U11" s="57">
         <v>5</v>
@@ -2173,36 +2269,36 @@
       <c r="AP11" s="57"/>
       <c r="AQ11" s="57"/>
       <c r="AR11" s="57"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="69">
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AU11" s="61">
+      <c r="AX11" s="61">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AV11" s="47">
+        <v>4</v>
+      </c>
+      <c r="AY11" s="47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AW11" s="50">
+      <c r="AZ11" s="50">
         <f t="shared" si="3"/>
-        <v>4.43</v>
-      </c>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="16"/>
+        <v>4.5999999999999996</v>
+      </c>
       <c r="BE11" s="16"/>
       <c r="BF11" s="16"/>
       <c r="BG11" s="16"/>
       <c r="BH11" s="16"/>
       <c r="BI11" s="16"/>
-    </row>
-    <row r="13" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+    </row>
+    <row r="13" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AX13" s="21"/>
       <c r="AY13" s="21"/>
       <c r="AZ13" s="21"/>
@@ -2215,10 +2311,13 @@
       <c r="BG13" s="21"/>
       <c r="BH13" s="21"/>
       <c r="BI13" s="21"/>
-    </row>
-    <row r="14" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ13" s="21"/>
+      <c r="BK13" s="21"/>
+      <c r="BL13" s="21"/>
+    </row>
+    <row r="14" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="80"/>
@@ -2246,7 +2345,7 @@
       <c r="Z14" s="80"/>
       <c r="AA14" s="81"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
       <c r="C15" s="82" t="s">
         <v>23</v>
@@ -2276,7 +2375,7 @@
       <c r="Z15" s="82"/>
       <c r="AA15" s="83"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="77" t="s">
         <v>24</v>
@@ -2306,7 +2405,7 @@
       <c r="Z16" s="77"/>
       <c r="AA16" s="78"/>
     </row>
-    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="77" t="s">
         <v>25</v>
@@ -2336,10 +2435,10 @@
       <c r="Z17" s="77"/>
       <c r="AA17" s="78"/>
     </row>
-    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="77"/>
       <c r="E18" s="77"/>
@@ -2366,7 +2465,7 @@
       <c r="Z18" s="77"/>
       <c r="AA18" s="78"/>
     </row>
-    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
       <c r="C19" s="77" t="s">
         <v>26</v>
@@ -2396,10 +2495,10 @@
       <c r="Z19" s="77"/>
       <c r="AA19" s="78"/>
     </row>
-    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
       <c r="C20" s="77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="77"/>
       <c r="E20" s="77"/>
@@ -2444,9 +2543,9 @@
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
       <c r="AT20" s="21"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="29"/>
-      <c r="AW20" s="29"/>
+      <c r="AU20" s="21"/>
+      <c r="AV20" s="21"/>
+      <c r="AW20" s="21"/>
       <c r="AX20" s="29"/>
       <c r="AY20" s="29"/>
       <c r="AZ20" s="29"/>
@@ -2459,11 +2558,14 @@
       <c r="BG20" s="29"/>
       <c r="BH20" s="29"/>
       <c r="BI20" s="29"/>
-    </row>
-    <row r="21" spans="2:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ20" s="29"/>
+      <c r="BK20" s="29"/>
+      <c r="BL20" s="29"/>
+    </row>
+    <row r="21" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
       <c r="C21" s="75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="75"/>
       <c r="E21" s="75"/>
@@ -2508,9 +2610,9 @@
       <c r="AR21" s="39"/>
       <c r="AS21" s="39"/>
       <c r="AT21" s="39"/>
-      <c r="AU21" s="29"/>
-      <c r="AV21" s="29"/>
-      <c r="AW21" s="29"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
       <c r="AX21" s="29"/>
       <c r="AY21" s="29"/>
       <c r="AZ21" s="29"/>
@@ -2523,8 +2625,11 @@
       <c r="BG21" s="29"/>
       <c r="BH21" s="29"/>
       <c r="BI21" s="29"/>
-    </row>
-    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="BJ21" s="29"/>
+      <c r="BK21" s="29"/>
+      <c r="BL21" s="29"/>
+    </row>
+    <row r="22" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -2570,9 +2675,9 @@
       <c r="AR22" s="39"/>
       <c r="AS22" s="39"/>
       <c r="AT22" s="39"/>
-      <c r="AU22" s="29"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="29"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
       <c r="AX22" s="29"/>
       <c r="AY22" s="29"/>
       <c r="AZ22" s="29"/>
@@ -2585,8 +2690,11 @@
       <c r="BG22" s="29"/>
       <c r="BH22" s="29"/>
       <c r="BI22" s="29"/>
-    </row>
-    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="BJ22" s="29"/>
+      <c r="BK22" s="29"/>
+      <c r="BL22" s="29"/>
+    </row>
+    <row r="23" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -2632,9 +2740,9 @@
       <c r="AR23" s="39"/>
       <c r="AS23" s="39"/>
       <c r="AT23" s="39"/>
-      <c r="AU23" s="29"/>
-      <c r="AV23" s="29"/>
-      <c r="AW23" s="29"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39"/>
       <c r="AX23" s="29"/>
       <c r="AY23" s="29"/>
       <c r="AZ23" s="29"/>
@@ -2647,8 +2755,11 @@
       <c r="BG23" s="29"/>
       <c r="BH23" s="29"/>
       <c r="BI23" s="29"/>
-    </row>
-    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="BJ23" s="29"/>
+      <c r="BK23" s="29"/>
+      <c r="BL23" s="29"/>
+    </row>
+    <row r="24" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
@@ -2694,8 +2805,11 @@
       <c r="AR24" s="39"/>
       <c r="AS24" s="39"/>
       <c r="AT24" s="39"/>
-    </row>
-    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+    </row>
+    <row r="25" spans="2:64" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -2741,17 +2855,20 @@
       <c r="AR25" s="39"/>
       <c r="AS25" s="39"/>
       <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AT1:AW2"/>
+    <mergeCell ref="AW1:AZ2"/>
     <mergeCell ref="C20:AA20"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:O2"/>
     <mergeCell ref="P1:Y2"/>
-    <mergeCell ref="Z2:AJ2"/>
-    <mergeCell ref="Z1:AS1"/>
-    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="Z2:AK2"/>
+    <mergeCell ref="Z1:AV1"/>
+    <mergeCell ref="AL2:AV2"/>
     <mergeCell ref="C21:AA21"/>
     <mergeCell ref="C17:AA17"/>
     <mergeCell ref="C18:AA18"/>
@@ -2760,7 +2877,7 @@
     <mergeCell ref="C15:AA15"/>
     <mergeCell ref="C16:AA16"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:AS11">
+  <conditionalFormatting sqref="B4:AV11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2770,6 +2887,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/docs/Статистика по команде.xlsx
+++ b/docs/Статистика по команде.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PicHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A13805-068C-44F1-AE06-95B70C76BE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFEAC68-4AC4-465D-9847-702AD63E2D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>Пользователь</author>
   </authors>
   <commentList>
-    <comment ref="AM3" authorId="0" shapeId="0" xr:uid="{D8DCEE99-EBC8-4E49-827A-2454BD639775}">
+    <comment ref="AW3" authorId="0" shapeId="0" xr:uid="{D8DCEE99-EBC8-4E49-827A-2454BD639775}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>Барышников Илья</t>
   </si>
@@ -309,6 +309,33 @@
   </si>
   <si>
     <t>Всплывающее меню</t>
+  </si>
+  <si>
+    <t>SWOT анализ</t>
+  </si>
+  <si>
+    <t>Страница добавления достижений</t>
+  </si>
+  <si>
+    <t>Страница избранного</t>
+  </si>
+  <si>
+    <t>Figma изменения проекта</t>
+  </si>
+  <si>
+    <t>Figma файлов проекта</t>
+  </si>
+  <si>
+    <t>Все проекты</t>
+  </si>
+  <si>
+    <t>Главная со всеми проектами</t>
+  </si>
+  <si>
+    <t>Страница файлов проекта</t>
+  </si>
+  <si>
+    <t>Страница настроек проекта</t>
   </si>
 </sst>
 </file>
@@ -663,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -853,18 +880,72 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,59 +961,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,155 +1292,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB3E128-4FA6-4B2E-888B-7DF6C459E43A}">
-  <dimension ref="A1:BM25"/>
+  <dimension ref="A1:BW25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="48" width="2.85546875" customWidth="1"/>
-    <col min="49" max="52" width="6.28515625" customWidth="1"/>
-    <col min="53" max="64" width="2.7109375" customWidth="1"/>
+    <col min="2" max="58" width="2.85546875" customWidth="1"/>
+    <col min="59" max="62" width="6.28515625" customWidth="1"/>
+    <col min="63" max="74" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="90" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="96" t="s">
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="97"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="84" t="s">
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="90"/>
+      <c r="BE1" s="90"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="AX1" s="85"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="77"/>
       <c r="BK1" s="21"/>
       <c r="BL1" s="21"/>
-    </row>
-    <row r="2" spans="1:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="96" t="s">
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+    </row>
+    <row r="2" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="99" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="91"/>
+      <c r="AV2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="100"/>
-      <c r="AR2" s="100"/>
-      <c r="AS2" s="100"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="89"/>
-    </row>
-    <row r="3" spans="1:65" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW2" s="93"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="79"/>
+      <c r="BJ2" s="80"/>
+    </row>
+    <row r="3" spans="1:75" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1423,157 +1476,187 @@
       <c r="E3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="36" t="s">
         <v>72</v>
       </c>
       <c r="H3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="N3" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="O3" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="P3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="R3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="S3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="T3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="U3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="V3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="W3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="X3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="Z3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="AA3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="AB3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="AC3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="AD3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="AE3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AF3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="36" t="s">
+      <c r="AG3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AH3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="36" t="s">
+      <c r="AI3" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ3" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM3" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="36" t="s">
+      <c r="AO3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="36" t="s">
+      <c r="AP3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="36" t="s">
+      <c r="AQ3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AH3" s="36" t="s">
+      <c r="AR3" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="36" t="s">
+      <c r="AS3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="AJ3" s="36" t="s">
+      <c r="AT3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AU3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="20" t="s">
+      <c r="AV3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AM3" s="36" t="s">
+      <c r="AW3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AN3" s="36" t="s">
+      <c r="AX3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AO3" s="36" t="s">
+      <c r="AY3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="AP3" s="36" t="s">
+      <c r="AZ3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="AQ3" s="36" t="s">
+      <c r="BA3" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="AR3" s="17" t="s">
+      <c r="BB3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AS3" s="17" t="s">
+      <c r="BC3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="AT3" s="17" t="s">
+      <c r="BD3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AU3" s="36" t="s">
+      <c r="BE3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AV3" s="19" t="s">
+      <c r="BF3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AW3" s="46" t="s">
+      <c r="BG3" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="AX3" s="72" t="s">
+      <c r="BH3" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="AY3" s="44" t="s">
+      <c r="BI3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="AZ3" s="45" t="s">
+      <c r="BJ3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="23"/>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="30"/>
-    </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BP3" s="23"/>
+      <c r="BQ3" s="23"/>
+      <c r="BR3" s="23"/>
+      <c r="BS3" s="23"/>
+      <c r="BT3" s="23"/>
+      <c r="BU3" s="23"/>
+      <c r="BV3" s="23"/>
+      <c r="BW3" s="30"/>
+    </row>
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1586,98 +1669,112 @@
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
-      <c r="K4" s="66">
-        <v>1</v>
-      </c>
+      <c r="K4" s="52"/>
       <c r="L4" s="52"/>
       <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="62">
-        <v>1</v>
-      </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="66">
+        <v>1</v>
+      </c>
+      <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
+      <c r="R4" s="53"/>
       <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
+      <c r="T4" s="62">
+        <v>1</v>
+      </c>
       <c r="U4" s="52"/>
       <c r="V4" s="52"/>
       <c r="W4" s="52"/>
       <c r="X4" s="52"/>
-      <c r="Y4" s="52">
-        <v>5</v>
-      </c>
+      <c r="Y4" s="52"/>
       <c r="Z4" s="52"/>
       <c r="AA4" s="52"/>
       <c r="AB4" s="52"/>
       <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
+      <c r="AD4" s="52">
+        <v>5</v>
+      </c>
       <c r="AE4" s="52"/>
-      <c r="AF4" s="52">
-        <v>4.5</v>
-      </c>
-      <c r="AG4" s="52">
-        <v>5</v>
-      </c>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="52"/>
       <c r="AI4" s="52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="52"/>
       <c r="AK4" s="52"/>
-      <c r="AL4" s="43">
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="AQ4" s="52">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="43">
         <v>6</v>
       </c>
-      <c r="AM4" s="43">
-        <v>5</v>
-      </c>
-      <c r="AN4" s="43">
-        <v>5</v>
-      </c>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="25">
+      <c r="AW4" s="43">
+        <v>5</v>
+      </c>
+      <c r="AX4" s="43">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="102">
+        <v>5</v>
+      </c>
+      <c r="BC4" s="43">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="25">
         <v>2</v>
       </c>
-      <c r="AS4" s="43">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="25">
+      <c r="BE4" s="43">
+        <v>5</v>
+      </c>
+      <c r="BF4" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG4" s="67">
+        <f>COUNTIF(B4:BF4, "&gt; 5")</f>
+        <v>1</v>
+      </c>
+      <c r="BH4" s="59">
+        <f>COUNTIF(B4:BF4, "&gt; 1")</f>
+        <v>11</v>
+      </c>
+      <c r="BI4" s="70">
+        <f>COUNTIF(B4:BF4, "1")</f>
         <v>2</v>
       </c>
-      <c r="AU4" s="43">
-        <v>5</v>
-      </c>
-      <c r="AV4" s="25">
-        <v>3</v>
-      </c>
-      <c r="AW4" s="67">
-        <f t="shared" ref="AW4:AW11" si="0">COUNTIF(B4:AV4, "&gt; 5")</f>
-        <v>1</v>
-      </c>
-      <c r="AX4" s="59">
-        <f t="shared" ref="AX4:AX11" si="1">COUNTIF(B4:AV4, "&gt; 1")</f>
-        <v>11</v>
-      </c>
-      <c r="AY4" s="70">
-        <f t="shared" ref="AY4:AY11" si="2">COUNTIF(B4:AV4, "1")</f>
-        <v>2</v>
-      </c>
-      <c r="AZ4" s="48">
-        <f t="shared" ref="AZ4:AZ11" si="3">ROUND(SUMIF(B4:AV4, "&gt; 1") / AX4, 2) + AY4 * 0.1</f>
-        <v>4.5200000000000005</v>
-      </c>
-      <c r="BE4" s="16"/>
-      <c r="BF4" s="16"/>
-      <c r="BG4" s="16"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="16"/>
-      <c r="BJ4" s="16"/>
-      <c r="BK4" s="16"/>
-      <c r="BL4" s="16"/>
-    </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BJ4" s="48">
+        <f>ROUND(SUMIF(B4:BF4, "&gt; 1") / BH4, 2) + BI4 * 0.1</f>
+        <v>4.79</v>
+      </c>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="16"/>
+      <c r="BT4" s="16"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="16"/>
+    </row>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1693,35 +1790,35 @@
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
       <c r="M5" s="43"/>
-      <c r="N5" s="55"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="43"/>
-      <c r="P5" s="43">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43">
         <v>5.5</v>
       </c>
-      <c r="Q5" s="63">
-        <v>1</v>
-      </c>
-      <c r="R5" s="63">
-        <v>1</v>
-      </c>
-      <c r="S5" s="63">
+      <c r="U5" s="63">
+        <v>1</v>
+      </c>
+      <c r="V5" s="63">
+        <v>1</v>
+      </c>
+      <c r="W5" s="63">
         <v>0</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63">
-        <v>5</v>
-      </c>
-      <c r="V5" s="63">
-        <v>5</v>
-      </c>
-      <c r="W5" s="43">
-        <v>5</v>
-      </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="63">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="43">
+        <v>5</v>
+      </c>
       <c r="AC5" s="43"/>
       <c r="AD5" s="43"/>
       <c r="AE5" s="43"/>
@@ -1734,48 +1831,58 @@
       <c r="AL5" s="43"/>
       <c r="AM5" s="43"/>
       <c r="AN5" s="43"/>
-      <c r="AO5" s="43">
-        <v>5</v>
-      </c>
-      <c r="AP5" s="43">
-        <v>5</v>
-      </c>
-      <c r="AQ5" s="43">
-        <v>4</v>
-      </c>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
       <c r="AR5" s="43"/>
       <c r="AS5" s="43"/>
       <c r="AT5" s="43"/>
       <c r="AU5" s="43"/>
-      <c r="AV5" s="63">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AX5" s="60">
-        <f t="shared" si="1"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="43">
+        <v>5</v>
+      </c>
+      <c r="BA5" s="43">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="63">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="68">
+        <f>COUNTIF(B5:BF5, "&gt; 5")</f>
+        <v>1</v>
+      </c>
+      <c r="BH5" s="60">
+        <f>COUNTIF(B5:BF5, "&gt; 1")</f>
         <v>7</v>
       </c>
-      <c r="AY5" s="71">
-        <f t="shared" si="2"/>
+      <c r="BI5" s="71">
+        <f>COUNTIF(B5:BF5, "1")</f>
         <v>3</v>
       </c>
-      <c r="AZ5" s="49">
-        <f t="shared" si="3"/>
+      <c r="BJ5" s="49">
+        <f>ROUND(SUMIF(B5:BF5, "&gt; 1") / BH5, 2) + BI5 * 0.1</f>
         <v>5.2299999999999995</v>
       </c>
-      <c r="BE5" s="16"/>
-      <c r="BF5" s="16"/>
-      <c r="BG5" s="16"/>
-      <c r="BH5" s="16"/>
-      <c r="BI5" s="16"/>
-      <c r="BJ5" s="16"/>
-      <c r="BK5" s="16"/>
-      <c r="BL5" s="16"/>
-    </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO5" s="16"/>
+      <c r="BP5" s="16"/>
+      <c r="BQ5" s="16"/>
+      <c r="BR5" s="16"/>
+      <c r="BS5" s="16"/>
+      <c r="BT5" s="16"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="16"/>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -1789,40 +1896,46 @@
       <c r="E6" s="43">
         <v>5.5</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="F6" s="43">
+        <v>5</v>
+      </c>
+      <c r="G6" s="43">
+        <v>5</v>
+      </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="43">
-        <v>5</v>
-      </c>
+      <c r="K6" s="43"/>
       <c r="L6" s="43"/>
-      <c r="M6" s="43">
-        <v>5</v>
-      </c>
+      <c r="M6" s="43"/>
       <c r="N6" s="43">
         <v>5</v>
       </c>
       <c r="O6" s="43">
+        <v>5</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43">
+        <v>5</v>
+      </c>
+      <c r="R6" s="43">
+        <v>5</v>
+      </c>
+      <c r="S6" s="43">
         <v>0</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
       <c r="T6" s="43"/>
       <c r="U6" s="43"/>
       <c r="V6" s="43"/>
       <c r="W6" s="43"/>
-      <c r="X6" s="43">
-        <v>5.5</v>
-      </c>
+      <c r="X6" s="43"/>
       <c r="Y6" s="43"/>
       <c r="Z6" s="43"/>
       <c r="AA6" s="43"/>
       <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
+      <c r="AC6" s="43">
+        <v>5.5</v>
+      </c>
       <c r="AD6" s="43"/>
       <c r="AE6" s="43"/>
       <c r="AF6" s="43"/>
@@ -1841,32 +1954,42 @@
       <c r="AS6" s="43"/>
       <c r="AT6" s="43"/>
       <c r="AU6" s="43"/>
-      <c r="AV6" s="55"/>
-      <c r="AW6" s="68">
-        <f t="shared" si="0"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="43"/>
+      <c r="AX6" s="43"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="43"/>
+      <c r="BC6" s="43"/>
+      <c r="BD6" s="43"/>
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="55"/>
+      <c r="BG6" s="68">
+        <f>COUNTIF(B6:BF6, "&gt; 5")</f>
         <v>3</v>
       </c>
-      <c r="AX6" s="60">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AY6" s="71">
-        <f t="shared" si="2"/>
+      <c r="BH6" s="60">
+        <f>COUNTIF(B6:BF6, "&gt; 1")</f>
+        <v>10</v>
+      </c>
+      <c r="BI6" s="71">
+        <f>COUNTIF(B6:BF6, "1")</f>
         <v>0</v>
       </c>
-      <c r="AZ6" s="49">
-        <f t="shared" si="3"/>
-        <v>5.21</v>
-      </c>
-      <c r="BF6" s="16"/>
-      <c r="BG6" s="16"/>
-      <c r="BH6" s="16"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="16"/>
-      <c r="BK6" s="16"/>
-      <c r="BL6" s="16"/>
-    </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BJ6" s="49">
+        <f>ROUND(SUMIF(B6:BF6, "&gt; 1") / BH6, 2) + BI6 * 0.1</f>
+        <v>5.15</v>
+      </c>
+      <c r="BP6" s="16"/>
+      <c r="BQ6" s="16"/>
+      <c r="BR6" s="16"/>
+      <c r="BS6" s="16"/>
+      <c r="BT6" s="16"/>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="16"/>
+    </row>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1878,23 +2001,29 @@
         <v>5</v>
       </c>
       <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="F7" s="43">
+        <v>5</v>
+      </c>
+      <c r="G7" s="43">
+        <v>5</v>
+      </c>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
-      <c r="K7" s="43">
-        <v>5</v>
-      </c>
-      <c r="L7" s="43">
-        <v>5</v>
-      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="43"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
+      <c r="N7" s="43">
+        <v>5</v>
+      </c>
+      <c r="O7" s="43">
+        <v>5</v>
+      </c>
+      <c r="P7" s="43">
+        <v>5</v>
+      </c>
       <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
+      <c r="R7" s="55"/>
       <c r="S7" s="43"/>
       <c r="T7" s="43"/>
       <c r="U7" s="43"/>
@@ -1924,33 +2053,43 @@
       <c r="AS7" s="43"/>
       <c r="AT7" s="43"/>
       <c r="AU7" s="43"/>
-      <c r="AV7" s="55"/>
-      <c r="AW7" s="68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AX7" s="60">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AY7" s="71">
-        <f t="shared" si="2"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="55"/>
+      <c r="BG7" s="68">
+        <f>COUNTIF(B7:BF7, "&gt; 5")</f>
+        <v>1</v>
+      </c>
+      <c r="BH7" s="60">
+        <f>COUNTIF(B7:BF7, "&gt; 1")</f>
+        <v>7</v>
+      </c>
+      <c r="BI7" s="71">
+        <f>COUNTIF(B7:BF7, "1")</f>
         <v>0</v>
       </c>
-      <c r="AZ7" s="49">
-        <f t="shared" si="3"/>
-        <v>5.13</v>
-      </c>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16"/>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="16"/>
-      <c r="BL7" s="16"/>
-    </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BJ7" s="49">
+        <f>ROUND(SUMIF(B7:BF7, "&gt; 1") / BH7, 2) + BI7 * 0.1</f>
+        <v>5.07</v>
+      </c>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="16"/>
+      <c r="BT7" s="16"/>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="16"/>
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -1966,11 +2105,11 @@
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
-      <c r="N8" s="55"/>
+      <c r="N8" s="43"/>
       <c r="O8" s="43"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
       <c r="U8" s="43"/>
@@ -1978,26 +2117,24 @@
       <c r="W8" s="43"/>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
-      <c r="Z8" s="43">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="63">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="43">
-        <v>4.5</v>
-      </c>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
       <c r="AC8" s="43"/>
       <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
+      <c r="AE8" s="43">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="63">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="43">
+        <v>4.5</v>
+      </c>
       <c r="AH8" s="43"/>
       <c r="AI8" s="43"/>
       <c r="AJ8" s="43"/>
-      <c r="AK8" s="43">
-        <v>5</v>
-      </c>
+      <c r="AK8" s="43"/>
       <c r="AL8" s="43"/>
       <c r="AM8" s="43"/>
       <c r="AN8" s="43"/>
@@ -2007,34 +2144,46 @@
       <c r="AR8" s="43"/>
       <c r="AS8" s="43"/>
       <c r="AT8" s="43"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="55"/>
-      <c r="AW8" s="68">
-        <f t="shared" si="0"/>
+      <c r="AU8" s="43">
+        <v>5</v>
+      </c>
+      <c r="AV8" s="43"/>
+      <c r="AW8" s="43"/>
+      <c r="AX8" s="43"/>
+      <c r="AY8" s="43"/>
+      <c r="AZ8" s="43"/>
+      <c r="BA8" s="43"/>
+      <c r="BB8" s="43"/>
+      <c r="BC8" s="43"/>
+      <c r="BD8" s="43"/>
+      <c r="BE8" s="43"/>
+      <c r="BF8" s="55"/>
+      <c r="BG8" s="68">
+        <f>COUNTIF(B8:BF8, "&gt; 5")</f>
         <v>0</v>
       </c>
-      <c r="AX8" s="60">
-        <f t="shared" si="1"/>
+      <c r="BH8" s="60">
+        <f>COUNTIF(B8:BF8, "&gt; 1")</f>
         <v>3</v>
       </c>
-      <c r="AY8" s="71">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="49">
-        <f t="shared" si="3"/>
+      <c r="BI8" s="71">
+        <f>COUNTIF(B8:BF8, "1")</f>
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="49">
+        <f>ROUND(SUMIF(B8:BF8, "&gt; 1") / BH8, 2) + BI8 * 0.1</f>
         <v>4.93</v>
       </c>
-      <c r="BE8" s="16"/>
-      <c r="BF8" s="16"/>
-      <c r="BG8" s="16"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="16"/>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="16"/>
-    </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="16"/>
+      <c r="BT8" s="16"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="16"/>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
@@ -2050,11 +2199,11 @@
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
       <c r="M9" s="43"/>
-      <c r="N9" s="55"/>
+      <c r="N9" s="43"/>
       <c r="O9" s="43"/>
       <c r="P9" s="43"/>
       <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
+      <c r="R9" s="55"/>
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
       <c r="U9" s="43"/>
@@ -2062,73 +2211,83 @@
       <c r="W9" s="43"/>
       <c r="X9" s="43"/>
       <c r="Y9" s="43"/>
-      <c r="Z9" s="63">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="63">
-        <v>1</v>
-      </c>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="25">
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="63">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="63">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="25">
         <v>5.5</v>
       </c>
-      <c r="AD9" s="43">
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="43">
         <v>4.25</v>
       </c>
-      <c r="AE9" s="43">
-        <v>5</v>
-      </c>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43">
-        <v>5</v>
-      </c>
-      <c r="AH9" s="43">
+      <c r="AO9" s="43">
+        <v>5</v>
+      </c>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="43">
         <v>4.5</v>
       </c>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43">
-        <v>5</v>
-      </c>
-      <c r="AK9" s="43">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
       <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AX9" s="60">
-        <f t="shared" si="1"/>
+      <c r="AT9" s="43">
+        <v>5</v>
+      </c>
+      <c r="AU9" s="43">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43"/>
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="55"/>
+      <c r="BG9" s="68">
+        <f>COUNTIF(B9:BF9, "&gt; 5")</f>
+        <v>1</v>
+      </c>
+      <c r="BH9" s="60">
+        <f>COUNTIF(B9:BF9, "&gt; 1")</f>
         <v>6</v>
       </c>
-      <c r="AY9" s="71">
-        <f t="shared" si="2"/>
+      <c r="BI9" s="71">
+        <f>COUNTIF(B9:BF9, "1")</f>
         <v>3</v>
       </c>
-      <c r="AZ9" s="49">
-        <f t="shared" si="3"/>
+      <c r="BJ9" s="49">
+        <f>ROUND(SUMIF(B9:BF9, "&gt; 1") / BH9, 2) + BI9 * 0.1</f>
         <v>5.18</v>
       </c>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16"/>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16"/>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
-    </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16"/>
+    </row>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -2144,11 +2303,11 @@
       <c r="K10" s="43"/>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
-      <c r="N10" s="55"/>
+      <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
+      <c r="R10" s="55"/>
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
       <c r="U10" s="43"/>
@@ -2156,26 +2315,24 @@
       <c r="W10" s="43"/>
       <c r="X10" s="43"/>
       <c r="Y10" s="43"/>
-      <c r="Z10" s="43">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="43">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="43">
-        <v>4.5</v>
-      </c>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
       <c r="AC10" s="43"/>
       <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
+      <c r="AE10" s="43">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="43">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="43">
+        <v>4.5</v>
+      </c>
       <c r="AH10" s="43"/>
       <c r="AI10" s="43"/>
       <c r="AJ10" s="43"/>
-      <c r="AK10" s="43">
-        <v>5</v>
-      </c>
+      <c r="AK10" s="43"/>
       <c r="AL10" s="43"/>
       <c r="AM10" s="43"/>
       <c r="AN10" s="43"/>
@@ -2185,34 +2342,46 @@
       <c r="AR10" s="43"/>
       <c r="AS10" s="43"/>
       <c r="AT10" s="43"/>
-      <c r="AU10" s="43"/>
-      <c r="AV10" s="55"/>
-      <c r="AW10" s="68">
-        <f t="shared" si="0"/>
+      <c r="AU10" s="43">
+        <v>5</v>
+      </c>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="43"/>
+      <c r="AY10" s="43"/>
+      <c r="AZ10" s="43"/>
+      <c r="BA10" s="43"/>
+      <c r="BB10" s="43"/>
+      <c r="BC10" s="43"/>
+      <c r="BD10" s="43"/>
+      <c r="BE10" s="43"/>
+      <c r="BF10" s="55"/>
+      <c r="BG10" s="68">
+        <f>COUNTIF(B10:BF10, "&gt; 5")</f>
         <v>0</v>
       </c>
-      <c r="AX10" s="60">
-        <f t="shared" si="1"/>
+      <c r="BH10" s="60">
+        <f>COUNTIF(B10:BF10, "&gt; 1")</f>
         <v>3</v>
       </c>
-      <c r="AY10" s="71">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AZ10" s="49">
-        <f t="shared" si="3"/>
+      <c r="BI10" s="71">
+        <f>COUNTIF(B10:BF10, "1")</f>
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="49">
+        <f>ROUND(SUMIF(B10:BF10, "&gt; 1") / BH10, 2) + BI10 * 0.1</f>
         <v>4.93</v>
       </c>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16"/>
-    </row>
-    <row r="11" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="16"/>
+      <c r="BQ10" s="16"/>
+      <c r="BR10" s="16"/>
+      <c r="BS10" s="16"/>
+      <c r="BT10" s="16"/>
+      <c r="BU10" s="16"/>
+      <c r="BV10" s="16"/>
+    </row>
+    <row r="11" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -2228,30 +2397,32 @@
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
       <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
+      <c r="N11" s="57"/>
       <c r="O11" s="57"/>
       <c r="P11" s="57"/>
-      <c r="Q11" s="57">
+      <c r="Q11" s="57"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57">
         <v>4</v>
       </c>
-      <c r="R11" s="57">
+      <c r="V11" s="57">
         <v>4</v>
       </c>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57">
-        <v>5</v>
-      </c>
-      <c r="U11" s="57">
-        <v>5</v>
-      </c>
-      <c r="V11" s="57">
-        <v>1</v>
-      </c>
       <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
+      <c r="X11" s="57">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="57">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="57">
+        <v>1</v>
+      </c>
       <c r="AB11" s="57"/>
       <c r="AC11" s="57"/>
       <c r="AD11" s="57"/>
@@ -2272,263 +2443,303 @@
       <c r="AS11" s="57"/>
       <c r="AT11" s="57"/>
       <c r="AU11" s="57"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="69">
-        <f t="shared" si="0"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
+      <c r="AZ11" s="57"/>
+      <c r="BA11" s="57"/>
+      <c r="BB11" s="57"/>
+      <c r="BC11" s="57"/>
+      <c r="BD11" s="57"/>
+      <c r="BE11" s="57"/>
+      <c r="BF11" s="58"/>
+      <c r="BG11" s="69">
+        <f>COUNTIF(B11:BF11, "&gt; 5")</f>
         <v>0</v>
       </c>
-      <c r="AX11" s="61">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AY11" s="47">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="50">
-        <f t="shared" si="3"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BE11" s="16"/>
-      <c r="BF11" s="16"/>
-      <c r="BG11" s="16"/>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="16"/>
-      <c r="BK11" s="16"/>
-      <c r="BL11" s="16"/>
-    </row>
-    <row r="13" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="21"/>
-      <c r="BG13" s="21"/>
+      <c r="BH11" s="61">
+        <f>COUNTIF(B11:BF11, "&gt; 1")</f>
+        <v>5</v>
+      </c>
+      <c r="BI11" s="47">
+        <f>COUNTIF(B11:BF11, "1")</f>
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="50">
+        <f>ROUND(SUMIF(B11:BF11, "&gt; 1") / BH11, 2) + BI11 * 0.1</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="BO11" s="16"/>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
+      <c r="BR11" s="16"/>
+      <c r="BS11" s="16"/>
+      <c r="BT11" s="16"/>
+      <c r="BU11" s="16"/>
+      <c r="BV11" s="16"/>
+    </row>
+    <row r="13" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BH13" s="21"/>
       <c r="BI13" s="21"/>
       <c r="BJ13" s="21"/>
       <c r="BK13" s="21"/>
       <c r="BL13" s="21"/>
-    </row>
-    <row r="14" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="79" t="s">
+      <c r="BM13" s="21"/>
+      <c r="BN13" s="21"/>
+      <c r="BO13" s="21"/>
+      <c r="BP13" s="21"/>
+      <c r="BQ13" s="21"/>
+      <c r="BR13" s="21"/>
+      <c r="BS13" s="21"/>
+      <c r="BT13" s="21"/>
+      <c r="BU13" s="21"/>
+      <c r="BV13" s="21"/>
+    </row>
+    <row r="14" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="81"/>
-    </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="99"/>
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="83"/>
-    </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="100"/>
+      <c r="U15" s="100"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="100"/>
+      <c r="Y15" s="100"/>
+      <c r="Z15" s="100"/>
+      <c r="AA15" s="100"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="101"/>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="78"/>
-    </row>
-    <row r="17" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="82"/>
+    </row>
+    <row r="17" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="78"/>
-    </row>
-    <row r="18" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="82"/>
+    </row>
+    <row r="18" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="78"/>
-    </row>
-    <row r="19" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="82"/>
+    </row>
+    <row r="19" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="78"/>
-    </row>
-    <row r="20" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="82"/>
+    </row>
+    <row r="20" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="82"/>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
       <c r="AI20" s="21"/>
@@ -2546,56 +2757,66 @@
       <c r="AU20" s="21"/>
       <c r="AV20" s="21"/>
       <c r="AW20" s="21"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="29"/>
-      <c r="BB20" s="29"/>
-      <c r="BC20" s="29"/>
-      <c r="BD20" s="29"/>
-      <c r="BE20" s="29"/>
-      <c r="BF20" s="29"/>
-      <c r="BG20" s="29"/>
+      <c r="AX20" s="21"/>
+      <c r="AY20" s="21"/>
+      <c r="AZ20" s="21"/>
+      <c r="BA20" s="21"/>
+      <c r="BB20" s="21"/>
+      <c r="BC20" s="21"/>
+      <c r="BD20" s="21"/>
+      <c r="BE20" s="21"/>
+      <c r="BF20" s="21"/>
+      <c r="BG20" s="21"/>
       <c r="BH20" s="29"/>
       <c r="BI20" s="29"/>
       <c r="BJ20" s="29"/>
       <c r="BK20" s="29"/>
       <c r="BL20" s="29"/>
-    </row>
-    <row r="21" spans="2:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM20" s="29"/>
+      <c r="BN20" s="29"/>
+      <c r="BO20" s="29"/>
+      <c r="BP20" s="29"/>
+      <c r="BQ20" s="29"/>
+      <c r="BR20" s="29"/>
+      <c r="BS20" s="29"/>
+      <c r="BT20" s="29"/>
+      <c r="BU20" s="29"/>
+      <c r="BV20" s="29"/>
+    </row>
+    <row r="21" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="96"/>
       <c r="AG21" s="39"/>
       <c r="AH21" s="39"/>
       <c r="AI21" s="39"/>
@@ -2613,23 +2834,33 @@
       <c r="AU21" s="39"/>
       <c r="AV21" s="39"/>
       <c r="AW21" s="39"/>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="29"/>
-      <c r="BA21" s="29"/>
-      <c r="BB21" s="29"/>
-      <c r="BC21" s="29"/>
-      <c r="BD21" s="29"/>
-      <c r="BE21" s="29"/>
-      <c r="BF21" s="29"/>
-      <c r="BG21" s="29"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="39"/>
+      <c r="BF21" s="39"/>
+      <c r="BG21" s="39"/>
       <c r="BH21" s="29"/>
       <c r="BI21" s="29"/>
       <c r="BJ21" s="29"/>
       <c r="BK21" s="29"/>
       <c r="BL21" s="29"/>
-    </row>
-    <row r="22" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="BM21" s="29"/>
+      <c r="BN21" s="29"/>
+      <c r="BO21" s="29"/>
+      <c r="BP21" s="29"/>
+      <c r="BQ21" s="29"/>
+      <c r="BR21" s="29"/>
+      <c r="BS21" s="29"/>
+      <c r="BT21" s="29"/>
+      <c r="BU21" s="29"/>
+      <c r="BV21" s="29"/>
+    </row>
+    <row r="22" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -2678,23 +2909,33 @@
       <c r="AU22" s="39"/>
       <c r="AV22" s="39"/>
       <c r="AW22" s="39"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="29"/>
-      <c r="BB22" s="29"/>
-      <c r="BC22" s="29"/>
-      <c r="BD22" s="29"/>
-      <c r="BE22" s="29"/>
-      <c r="BF22" s="29"/>
-      <c r="BG22" s="29"/>
+      <c r="AX22" s="39"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="39"/>
+      <c r="BG22" s="39"/>
       <c r="BH22" s="29"/>
       <c r="BI22" s="29"/>
       <c r="BJ22" s="29"/>
       <c r="BK22" s="29"/>
       <c r="BL22" s="29"/>
-    </row>
-    <row r="23" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="BM22" s="29"/>
+      <c r="BN22" s="29"/>
+      <c r="BO22" s="29"/>
+      <c r="BP22" s="29"/>
+      <c r="BQ22" s="29"/>
+      <c r="BR22" s="29"/>
+      <c r="BS22" s="29"/>
+      <c r="BT22" s="29"/>
+      <c r="BU22" s="29"/>
+      <c r="BV22" s="29"/>
+    </row>
+    <row r="23" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -2743,23 +2984,33 @@
       <c r="AU23" s="39"/>
       <c r="AV23" s="39"/>
       <c r="AW23" s="39"/>
-      <c r="AX23" s="29"/>
-      <c r="AY23" s="29"/>
-      <c r="AZ23" s="29"/>
-      <c r="BA23" s="29"/>
-      <c r="BB23" s="29"/>
-      <c r="BC23" s="29"/>
-      <c r="BD23" s="29"/>
-      <c r="BE23" s="29"/>
-      <c r="BF23" s="29"/>
-      <c r="BG23" s="29"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
+      <c r="BA23" s="39"/>
+      <c r="BB23" s="39"/>
+      <c r="BC23" s="39"/>
+      <c r="BD23" s="39"/>
+      <c r="BE23" s="39"/>
+      <c r="BF23" s="39"/>
+      <c r="BG23" s="39"/>
       <c r="BH23" s="29"/>
       <c r="BI23" s="29"/>
       <c r="BJ23" s="29"/>
       <c r="BK23" s="29"/>
       <c r="BL23" s="29"/>
-    </row>
-    <row r="24" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="BM23" s="29"/>
+      <c r="BN23" s="29"/>
+      <c r="BO23" s="29"/>
+      <c r="BP23" s="29"/>
+      <c r="BQ23" s="29"/>
+      <c r="BR23" s="29"/>
+      <c r="BS23" s="29"/>
+      <c r="BT23" s="29"/>
+      <c r="BU23" s="29"/>
+      <c r="BV23" s="29"/>
+    </row>
+    <row r="24" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
@@ -2808,8 +3059,18 @@
       <c r="AU24" s="39"/>
       <c r="AV24" s="39"/>
       <c r="AW24" s="39"/>
-    </row>
-    <row r="25" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+    </row>
+    <row r="25" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -2858,26 +3119,36 @@
       <c r="AU25" s="39"/>
       <c r="AV25" s="39"/>
       <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AW1:AZ2"/>
-    <mergeCell ref="C20:AA20"/>
+    <mergeCell ref="C21:AF21"/>
+    <mergeCell ref="C17:AF17"/>
+    <mergeCell ref="C18:AF18"/>
+    <mergeCell ref="C19:AF19"/>
+    <mergeCell ref="B14:AF14"/>
+    <mergeCell ref="C15:AF15"/>
+    <mergeCell ref="C16:AF16"/>
+    <mergeCell ref="BG1:BJ2"/>
+    <mergeCell ref="C20:AF20"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:O2"/>
-    <mergeCell ref="P1:Y2"/>
-    <mergeCell ref="Z2:AK2"/>
-    <mergeCell ref="Z1:AV1"/>
-    <mergeCell ref="AL2:AV2"/>
-    <mergeCell ref="C21:AA21"/>
-    <mergeCell ref="C17:AA17"/>
-    <mergeCell ref="C18:AA18"/>
-    <mergeCell ref="C19:AA19"/>
-    <mergeCell ref="B14:AA14"/>
-    <mergeCell ref="C15:AA15"/>
-    <mergeCell ref="C16:AA16"/>
+    <mergeCell ref="B1:S2"/>
+    <mergeCell ref="T1:AD2"/>
+    <mergeCell ref="AE2:AU2"/>
+    <mergeCell ref="AE1:BF1"/>
+    <mergeCell ref="AV2:BF2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:AV11">
+  <conditionalFormatting sqref="B4:BF11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -2896,7 +3167,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,7 +3238,9 @@
       <c r="G2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -2995,7 +3268,9 @@
       <c r="G3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
@@ -3023,7 +3298,9 @@
       <c r="G4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
@@ -3051,7 +3328,9 @@
       <c r="G5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
@@ -3079,7 +3358,9 @@
       <c r="G6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
@@ -3107,7 +3388,9 @@
       <c r="G7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -3135,7 +3418,9 @@
       <c r="G8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -3163,7 +3448,9 @@
       <c r="G9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -3189,7 +3476,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Статистика по команде.xlsx
+++ b/docs/Статистика по команде.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PicHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFEAC68-4AC4-465D-9847-702AD63E2D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB98FEA3-3783-4C35-8375-49614D205F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
   <si>
     <t>Барышников Илья</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>Страница настроек проекта</t>
+  </si>
+  <si>
+    <t>Изменение проекта</t>
+  </si>
+  <si>
+    <t>Файлы пректа</t>
+  </si>
+  <si>
+    <t>Поиск друзей</t>
   </si>
 </sst>
 </file>
@@ -690,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -880,6 +889,33 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -898,12 +934,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -939,30 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -1292,96 +1298,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB3E128-4FA6-4B2E-888B-7DF6C459E43A}">
-  <dimension ref="A1:BW25"/>
+  <dimension ref="A1:BZ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="58" width="2.85546875" customWidth="1"/>
-    <col min="59" max="62" width="6.28515625" customWidth="1"/>
-    <col min="63" max="74" width="2.7109375" customWidth="1"/>
+    <col min="2" max="61" width="2.85546875" customWidth="1"/>
+    <col min="62" max="65" width="6.28515625" customWidth="1"/>
+    <col min="66" max="77" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:78" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="83" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="89" t="s">
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="90"/>
-      <c r="BB1" s="90"/>
-      <c r="BC1" s="90"/>
-      <c r="BD1" s="90"/>
-      <c r="BE1" s="90"/>
-      <c r="BF1" s="91"/>
-      <c r="BG1" s="75" t="s">
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="97"/>
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="97"/>
+      <c r="BA1" s="97"/>
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="97"/>
+      <c r="BD1" s="97"/>
+      <c r="BE1" s="97"/>
+      <c r="BF1" s="97"/>
+      <c r="BG1" s="97"/>
+      <c r="BH1" s="97"/>
+      <c r="BI1" s="98"/>
+      <c r="BJ1" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="BH1" s="76"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
+      <c r="BK1" s="85"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="86"/>
       <c r="BN1" s="21"/>
       <c r="BO1" s="21"/>
       <c r="BP1" s="21"/>
@@ -1391,76 +1397,82 @@
       <c r="BT1" s="21"/>
       <c r="BU1" s="21"/>
       <c r="BV1" s="21"/>
-    </row>
-    <row r="2" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="89" t="s">
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+    </row>
+    <row r="2" spans="1:78" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="90"/>
-      <c r="AR2" s="90"/>
-      <c r="AS2" s="90"/>
-      <c r="AT2" s="90"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="92" t="s">
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="93"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="93"/>
-      <c r="AZ2" s="93"/>
-      <c r="BA2" s="93"/>
-      <c r="BB2" s="93"/>
-      <c r="BC2" s="93"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="94"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="79"/>
-      <c r="BI2" s="79"/>
-      <c r="BJ2" s="80"/>
-    </row>
-    <row r="3" spans="1:75" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW2" s="100"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="100"/>
+      <c r="BD2" s="100"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="101"/>
+      <c r="BJ2" s="87"/>
+      <c r="BK2" s="88"/>
+      <c r="BL2" s="88"/>
+      <c r="BM2" s="89"/>
+    </row>
+    <row r="3" spans="1:78" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1557,25 +1569,25 @@
       <c r="AF3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="36" t="s">
+      <c r="AG3" s="102" t="s">
         <v>48</v>
       </c>
       <c r="AH3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="103" t="s">
+      <c r="AI3" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="AJ3" s="103" t="s">
+      <c r="AJ3" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AK3" s="103" t="s">
+      <c r="AK3" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AL3" s="103" t="s">
+      <c r="AL3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AM3" s="103" t="s">
+      <c r="AM3" s="17" t="s">
         <v>85</v>
       </c>
       <c r="AN3" s="36" t="s">
@@ -1623,40 +1635,49 @@
       <c r="BB3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="BC3" s="17" t="s">
+      <c r="BC3" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="BD3" s="17" t="s">
+      <c r="BD3" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE3" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF3" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="BE3" s="36" t="s">
+      <c r="BH3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="BF3" s="19" t="s">
+      <c r="BI3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BG3" s="46" t="s">
+      <c r="BJ3" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="BH3" s="72" t="s">
+      <c r="BK3" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="BI3" s="44" t="s">
+      <c r="BL3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="BJ3" s="45" t="s">
+      <c r="BM3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="BP3" s="23"/>
-      <c r="BQ3" s="23"/>
-      <c r="BR3" s="23"/>
       <c r="BS3" s="23"/>
       <c r="BT3" s="23"/>
       <c r="BU3" s="23"/>
       <c r="BV3" s="23"/>
-      <c r="BW3" s="30"/>
-    </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BW3" s="23"/>
+      <c r="BX3" s="23"/>
+      <c r="BY3" s="23"/>
+      <c r="BZ3" s="30"/>
+    </row>
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1718,9 @@
       </c>
       <c r="AE4" s="52"/>
       <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
+      <c r="AG4" s="52">
+        <v>0</v>
+      </c>
       <c r="AH4" s="52"/>
       <c r="AI4" s="52">
         <v>0</v>
@@ -1706,7 +1729,7 @@
       <c r="AK4" s="52"/>
       <c r="AL4" s="52"/>
       <c r="AM4" s="52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN4" s="52"/>
       <c r="AO4" s="52"/>
@@ -1734,47 +1757,50 @@
       <c r="AY4" s="43"/>
       <c r="AZ4" s="43"/>
       <c r="BA4" s="43"/>
-      <c r="BB4" s="102">
+      <c r="BB4" s="43">
         <v>5</v>
       </c>
       <c r="BC4" s="43">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="43"/>
+      <c r="BF4" s="43"/>
+      <c r="BG4" s="25">
         <v>2</v>
       </c>
-      <c r="BE4" s="43">
-        <v>5</v>
-      </c>
-      <c r="BF4" s="25">
+      <c r="BH4" s="43">
+        <v>5</v>
+      </c>
+      <c r="BI4" s="25">
         <v>3</v>
       </c>
-      <c r="BG4" s="67">
-        <f>COUNTIF(B4:BF4, "&gt; 5")</f>
-        <v>1</v>
-      </c>
-      <c r="BH4" s="59">
-        <f>COUNTIF(B4:BF4, "&gt; 1")</f>
-        <v>11</v>
-      </c>
-      <c r="BI4" s="70">
-        <f>COUNTIF(B4:BF4, "1")</f>
+      <c r="BJ4" s="67">
+        <f t="shared" ref="BJ4:BJ11" si="0">COUNTIF(B4:BI4, "&gt; 5")</f>
+        <v>1</v>
+      </c>
+      <c r="BK4" s="59">
+        <f t="shared" ref="BK4:BK11" si="1">COUNTIF(B4:BI4, "&gt; 1")</f>
+        <v>13</v>
+      </c>
+      <c r="BL4" s="70">
+        <f t="shared" ref="BL4:BL11" si="2">COUNTIF(B4:BI4, "1")</f>
         <v>2</v>
       </c>
-      <c r="BJ4" s="48">
-        <f>ROUND(SUMIF(B4:BF4, "&gt; 1") / BH4, 2) + BI4 * 0.1</f>
-        <v>4.79</v>
-      </c>
-      <c r="BO4" s="16"/>
-      <c r="BP4" s="16"/>
-      <c r="BQ4" s="16"/>
+      <c r="BM4" s="48">
+        <f t="shared" ref="BM4:BM11" si="3">ROUND(SUMIF(B4:BI4, "&gt; 1") / BK4, 2) + BL4 * 0.1</f>
+        <v>4.8500000000000005</v>
+      </c>
       <c r="BR4" s="16"/>
       <c r="BS4" s="16"/>
       <c r="BT4" s="16"/>
       <c r="BU4" s="16"/>
       <c r="BV4" s="16"/>
-    </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BW4" s="16"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+    </row>
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1854,35 +1880,38 @@
       <c r="BC5" s="43"/>
       <c r="BD5" s="43"/>
       <c r="BE5" s="43"/>
-      <c r="BF5" s="63">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="68">
-        <f>COUNTIF(B5:BF5, "&gt; 5")</f>
-        <v>1</v>
-      </c>
-      <c r="BH5" s="60">
-        <f>COUNTIF(B5:BF5, "&gt; 1")</f>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="63">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BK5" s="60">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="BI5" s="71">
-        <f>COUNTIF(B5:BF5, "1")</f>
+      <c r="BL5" s="71">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="BJ5" s="49">
-        <f>ROUND(SUMIF(B5:BF5, "&gt; 1") / BH5, 2) + BI5 * 0.1</f>
+      <c r="BM5" s="49">
+        <f t="shared" si="3"/>
         <v>5.2299999999999995</v>
       </c>
-      <c r="BO5" s="16"/>
-      <c r="BP5" s="16"/>
-      <c r="BQ5" s="16"/>
       <c r="BR5" s="16"/>
       <c r="BS5" s="16"/>
       <c r="BT5" s="16"/>
       <c r="BU5" s="16"/>
       <c r="BV5" s="16"/>
-    </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BW5" s="16"/>
+      <c r="BX5" s="16"/>
+      <c r="BY5" s="16"/>
+    </row>
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -1964,32 +1993,35 @@
       <c r="BC6" s="43"/>
       <c r="BD6" s="43"/>
       <c r="BE6" s="43"/>
-      <c r="BF6" s="55"/>
-      <c r="BG6" s="68">
-        <f>COUNTIF(B6:BF6, "&gt; 5")</f>
+      <c r="BF6" s="43"/>
+      <c r="BG6" s="43"/>
+      <c r="BH6" s="43"/>
+      <c r="BI6" s="55"/>
+      <c r="BJ6" s="68">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BH6" s="60">
-        <f>COUNTIF(B6:BF6, "&gt; 1")</f>
+      <c r="BK6" s="60">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="BI6" s="71">
-        <f>COUNTIF(B6:BF6, "1")</f>
+      <c r="BL6" s="71">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BJ6" s="49">
-        <f>ROUND(SUMIF(B6:BF6, "&gt; 1") / BH6, 2) + BI6 * 0.1</f>
+      <c r="BM6" s="49">
+        <f t="shared" si="3"/>
         <v>5.15</v>
       </c>
-      <c r="BP6" s="16"/>
-      <c r="BQ6" s="16"/>
-      <c r="BR6" s="16"/>
       <c r="BS6" s="16"/>
       <c r="BT6" s="16"/>
       <c r="BU6" s="16"/>
       <c r="BV6" s="16"/>
-    </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BW6" s="16"/>
+      <c r="BX6" s="16"/>
+      <c r="BY6" s="16"/>
+    </row>
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -2063,33 +2095,36 @@
       <c r="BC7" s="43"/>
       <c r="BD7" s="43"/>
       <c r="BE7" s="43"/>
-      <c r="BF7" s="55"/>
-      <c r="BG7" s="68">
-        <f>COUNTIF(B7:BF7, "&gt; 5")</f>
-        <v>1</v>
-      </c>
-      <c r="BH7" s="60">
-        <f>COUNTIF(B7:BF7, "&gt; 1")</f>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="55"/>
+      <c r="BJ7" s="68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BK7" s="60">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="BI7" s="71">
-        <f>COUNTIF(B7:BF7, "1")</f>
+      <c r="BL7" s="71">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BJ7" s="49">
-        <f>ROUND(SUMIF(B7:BF7, "&gt; 1") / BH7, 2) + BI7 * 0.1</f>
+      <c r="BM7" s="49">
+        <f t="shared" si="3"/>
         <v>5.07</v>
       </c>
-      <c r="BO7" s="16"/>
-      <c r="BP7" s="16"/>
-      <c r="BQ7" s="16"/>
       <c r="BR7" s="16"/>
       <c r="BS7" s="16"/>
       <c r="BT7" s="16"/>
       <c r="BU7" s="16"/>
       <c r="BV7" s="16"/>
-    </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BW7" s="16"/>
+      <c r="BX7" s="16"/>
+      <c r="BY7" s="16"/>
+    </row>
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -2157,33 +2192,36 @@
       <c r="BC8" s="43"/>
       <c r="BD8" s="43"/>
       <c r="BE8" s="43"/>
-      <c r="BF8" s="55"/>
-      <c r="BG8" s="68">
-        <f>COUNTIF(B8:BF8, "&gt; 5")</f>
+      <c r="BF8" s="43"/>
+      <c r="BG8" s="43"/>
+      <c r="BH8" s="43"/>
+      <c r="BI8" s="55"/>
+      <c r="BJ8" s="68">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BH8" s="60">
-        <f>COUNTIF(B8:BF8, "&gt; 1")</f>
+      <c r="BK8" s="60">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="BI8" s="71">
-        <f>COUNTIF(B8:BF8, "1")</f>
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="49">
-        <f>ROUND(SUMIF(B8:BF8, "&gt; 1") / BH8, 2) + BI8 * 0.1</f>
+      <c r="BL8" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BM8" s="49">
+        <f t="shared" si="3"/>
         <v>4.93</v>
       </c>
-      <c r="BO8" s="16"/>
-      <c r="BP8" s="16"/>
-      <c r="BQ8" s="16"/>
       <c r="BR8" s="16"/>
       <c r="BS8" s="16"/>
       <c r="BT8" s="16"/>
       <c r="BU8" s="16"/>
       <c r="BV8" s="16"/>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16"/>
+    </row>
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
@@ -2226,11 +2264,11 @@
       <c r="AH9" s="25">
         <v>5.5</v>
       </c>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
       <c r="AN9" s="43">
         <v>4.25</v>
       </c>
@@ -2261,33 +2299,36 @@
       <c r="BC9" s="43"/>
       <c r="BD9" s="43"/>
       <c r="BE9" s="43"/>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="68">
-        <f>COUNTIF(B9:BF9, "&gt; 5")</f>
-        <v>1</v>
-      </c>
-      <c r="BH9" s="60">
-        <f>COUNTIF(B9:BF9, "&gt; 1")</f>
+      <c r="BF9" s="43"/>
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="55"/>
+      <c r="BJ9" s="68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BK9" s="60">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="BI9" s="71">
-        <f>COUNTIF(B9:BF9, "1")</f>
+      <c r="BL9" s="71">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="BJ9" s="49">
-        <f>ROUND(SUMIF(B9:BF9, "&gt; 1") / BH9, 2) + BI9 * 0.1</f>
+      <c r="BM9" s="49">
+        <f t="shared" si="3"/>
         <v>5.18</v>
       </c>
-      <c r="BO9" s="16"/>
-      <c r="BP9" s="16"/>
-      <c r="BQ9" s="16"/>
       <c r="BR9" s="16"/>
       <c r="BS9" s="16"/>
       <c r="BT9" s="16"/>
       <c r="BU9" s="16"/>
       <c r="BV9" s="16"/>
-    </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+    </row>
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -2355,33 +2396,36 @@
       <c r="BC10" s="43"/>
       <c r="BD10" s="43"/>
       <c r="BE10" s="43"/>
-      <c r="BF10" s="55"/>
-      <c r="BG10" s="68">
-        <f>COUNTIF(B10:BF10, "&gt; 5")</f>
+      <c r="BF10" s="43"/>
+      <c r="BG10" s="43"/>
+      <c r="BH10" s="43"/>
+      <c r="BI10" s="55"/>
+      <c r="BJ10" s="68">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BH10" s="60">
-        <f>COUNTIF(B10:BF10, "&gt; 1")</f>
+      <c r="BK10" s="60">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="BI10" s="71">
-        <f>COUNTIF(B10:BF10, "1")</f>
-        <v>1</v>
-      </c>
-      <c r="BJ10" s="49">
-        <f>ROUND(SUMIF(B10:BF10, "&gt; 1") / BH10, 2) + BI10 * 0.1</f>
+      <c r="BL10" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BM10" s="49">
+        <f t="shared" si="3"/>
         <v>4.93</v>
       </c>
-      <c r="BO10" s="16"/>
-      <c r="BP10" s="16"/>
-      <c r="BQ10" s="16"/>
       <c r="BR10" s="16"/>
       <c r="BS10" s="16"/>
       <c r="BT10" s="16"/>
       <c r="BU10" s="16"/>
       <c r="BV10" s="16"/>
-    </row>
-    <row r="11" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BW10" s="16"/>
+      <c r="BX10" s="16"/>
+      <c r="BY10" s="16"/>
+    </row>
+    <row r="11" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -2453,36 +2497,36 @@
       <c r="BC11" s="57"/>
       <c r="BD11" s="57"/>
       <c r="BE11" s="57"/>
-      <c r="BF11" s="58"/>
-      <c r="BG11" s="69">
-        <f>COUNTIF(B11:BF11, "&gt; 5")</f>
+      <c r="BF11" s="57"/>
+      <c r="BG11" s="57"/>
+      <c r="BH11" s="57"/>
+      <c r="BI11" s="58"/>
+      <c r="BJ11" s="69">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BH11" s="61">
-        <f>COUNTIF(B11:BF11, "&gt; 1")</f>
-        <v>5</v>
-      </c>
-      <c r="BI11" s="47">
-        <f>COUNTIF(B11:BF11, "1")</f>
-        <v>1</v>
-      </c>
-      <c r="BJ11" s="50">
-        <f>ROUND(SUMIF(B11:BF11, "&gt; 1") / BH11, 2) + BI11 * 0.1</f>
+      <c r="BK11" s="61">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="BL11" s="47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BM11" s="50">
+        <f t="shared" si="3"/>
         <v>4.6999999999999993</v>
       </c>
-      <c r="BO11" s="16"/>
-      <c r="BP11" s="16"/>
-      <c r="BQ11" s="16"/>
       <c r="BR11" s="16"/>
       <c r="BS11" s="16"/>
       <c r="BT11" s="16"/>
       <c r="BU11" s="16"/>
       <c r="BV11" s="16"/>
-    </row>
-    <row r="13" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21"/>
+      <c r="BW11" s="16"/>
+      <c r="BX11" s="16"/>
+      <c r="BY11" s="16"/>
+    </row>
+    <row r="13" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BK13" s="21"/>
       <c r="BL13" s="21"/>
       <c r="BM13" s="21"/>
@@ -2495,251 +2539,254 @@
       <c r="BT13" s="21"/>
       <c r="BU13" s="21"/>
       <c r="BV13" s="21"/>
-    </row>
-    <row r="14" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="97" t="s">
+      <c r="BW13" s="21"/>
+      <c r="BX13" s="21"/>
+      <c r="BY13" s="21"/>
+    </row>
+    <row r="14" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="99"/>
-    </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="81"/>
+    </row>
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="101"/>
-    </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="83"/>
+    </row>
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="82"/>
-    </row>
-    <row r="17" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="78"/>
+    </row>
+    <row r="17" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="82"/>
-    </row>
-    <row r="18" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="78"/>
+    </row>
+    <row r="18" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81"/>
-      <c r="AF18" s="82"/>
-    </row>
-    <row r="19" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="78"/>
+    </row>
+    <row r="19" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="82"/>
-    </row>
-    <row r="20" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="78"/>
+    </row>
+    <row r="20" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="81"/>
-      <c r="AF20" s="82"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="78"/>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
       <c r="AI20" s="21"/>
@@ -2767,9 +2814,9 @@
       <c r="BE20" s="21"/>
       <c r="BF20" s="21"/>
       <c r="BG20" s="21"/>
-      <c r="BH20" s="29"/>
-      <c r="BI20" s="29"/>
-      <c r="BJ20" s="29"/>
+      <c r="BH20" s="21"/>
+      <c r="BI20" s="21"/>
+      <c r="BJ20" s="21"/>
       <c r="BK20" s="29"/>
       <c r="BL20" s="29"/>
       <c r="BM20" s="29"/>
@@ -2782,41 +2829,44 @@
       <c r="BT20" s="29"/>
       <c r="BU20" s="29"/>
       <c r="BV20" s="29"/>
-    </row>
-    <row r="21" spans="2:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BW20" s="29"/>
+      <c r="BX20" s="29"/>
+      <c r="BY20" s="29"/>
+    </row>
+    <row r="21" spans="2:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="96"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="76"/>
       <c r="AG21" s="39"/>
       <c r="AH21" s="39"/>
       <c r="AI21" s="39"/>
@@ -2844,9 +2894,9 @@
       <c r="BE21" s="39"/>
       <c r="BF21" s="39"/>
       <c r="BG21" s="39"/>
-      <c r="BH21" s="29"/>
-      <c r="BI21" s="29"/>
-      <c r="BJ21" s="29"/>
+      <c r="BH21" s="39"/>
+      <c r="BI21" s="39"/>
+      <c r="BJ21" s="39"/>
       <c r="BK21" s="29"/>
       <c r="BL21" s="29"/>
       <c r="BM21" s="29"/>
@@ -2859,8 +2909,11 @@
       <c r="BT21" s="29"/>
       <c r="BU21" s="29"/>
       <c r="BV21" s="29"/>
-    </row>
-    <row r="22" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="BW21" s="29"/>
+      <c r="BX21" s="29"/>
+      <c r="BY21" s="29"/>
+    </row>
+    <row r="22" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -2919,9 +2972,9 @@
       <c r="BE22" s="39"/>
       <c r="BF22" s="39"/>
       <c r="BG22" s="39"/>
-      <c r="BH22" s="29"/>
-      <c r="BI22" s="29"/>
-      <c r="BJ22" s="29"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="39"/>
       <c r="BK22" s="29"/>
       <c r="BL22" s="29"/>
       <c r="BM22" s="29"/>
@@ -2934,8 +2987,11 @@
       <c r="BT22" s="29"/>
       <c r="BU22" s="29"/>
       <c r="BV22" s="29"/>
-    </row>
-    <row r="23" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="BW22" s="29"/>
+      <c r="BX22" s="29"/>
+      <c r="BY22" s="29"/>
+    </row>
+    <row r="23" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -2994,9 +3050,9 @@
       <c r="BE23" s="39"/>
       <c r="BF23" s="39"/>
       <c r="BG23" s="39"/>
-      <c r="BH23" s="29"/>
-      <c r="BI23" s="29"/>
-      <c r="BJ23" s="29"/>
+      <c r="BH23" s="39"/>
+      <c r="BI23" s="39"/>
+      <c r="BJ23" s="39"/>
       <c r="BK23" s="29"/>
       <c r="BL23" s="29"/>
       <c r="BM23" s="29"/>
@@ -3009,8 +3065,11 @@
       <c r="BT23" s="29"/>
       <c r="BU23" s="29"/>
       <c r="BV23" s="29"/>
-    </row>
-    <row r="24" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="BW23" s="29"/>
+      <c r="BX23" s="29"/>
+      <c r="BY23" s="29"/>
+    </row>
+    <row r="24" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
@@ -3069,8 +3128,11 @@
       <c r="BE24" s="39"/>
       <c r="BF24" s="39"/>
       <c r="BG24" s="39"/>
-    </row>
-    <row r="25" spans="2:74" x14ac:dyDescent="0.25">
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+    </row>
+    <row r="25" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -3129,9 +3191,20 @@
       <c r="BE25" s="39"/>
       <c r="BF25" s="39"/>
       <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="BJ1:BM2"/>
+    <mergeCell ref="C20:AF20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:S2"/>
+    <mergeCell ref="T1:AD2"/>
+    <mergeCell ref="AE2:AU2"/>
+    <mergeCell ref="AE1:BI1"/>
+    <mergeCell ref="AV2:BI2"/>
     <mergeCell ref="C21:AF21"/>
     <mergeCell ref="C17:AF17"/>
     <mergeCell ref="C18:AF18"/>
@@ -3139,16 +3212,8 @@
     <mergeCell ref="B14:AF14"/>
     <mergeCell ref="C15:AF15"/>
     <mergeCell ref="C16:AF16"/>
-    <mergeCell ref="BG1:BJ2"/>
-    <mergeCell ref="C20:AF20"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:S2"/>
-    <mergeCell ref="T1:AD2"/>
-    <mergeCell ref="AE2:AU2"/>
-    <mergeCell ref="AE1:BF1"/>
-    <mergeCell ref="AV2:BF2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:BF11">
+  <conditionalFormatting sqref="B4:BI11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>

--- a/docs/Статистика по команде.xlsx
+++ b/docs/Статистика по команде.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PicHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB98FEA3-3783-4C35-8375-49614D205F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1573090-214C-4040-8CBA-17F1F687BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>Пользователь</author>
   </authors>
   <commentList>
-    <comment ref="AW3" authorId="0" shapeId="0" xr:uid="{D8DCEE99-EBC8-4E49-827A-2454BD639775}">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{D8DCEE99-EBC8-4E49-827A-2454BD639775}">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
   <si>
     <t>Барышников Илья</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>Поиск друзей</t>
+  </si>
+  <si>
+    <t>PEST анализ</t>
+  </si>
+  <si>
+    <t>Интеллектуальная карта</t>
   </si>
 </sst>
 </file>
@@ -1298,21 +1304,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB3E128-4FA6-4B2E-888B-7DF6C459E43A}">
-  <dimension ref="A1:BZ25"/>
+  <dimension ref="A1:CC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BB6" sqref="BB6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BH6" sqref="BH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="61" width="2.85546875" customWidth="1"/>
-    <col min="62" max="65" width="6.28515625" customWidth="1"/>
-    <col min="66" max="77" width="2.7109375" customWidth="1"/>
+    <col min="2" max="64" width="2.85546875" customWidth="1"/>
+    <col min="65" max="68" width="6.28515625" customWidth="1"/>
+    <col min="69" max="80" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
         <v>28</v>
       </c>
@@ -1348,12 +1354,12 @@
       <c r="AA1" s="92"/>
       <c r="AB1" s="92"/>
       <c r="AC1" s="92"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="96" t="s">
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
       <c r="AH1" s="97"/>
       <c r="AI1" s="97"/>
       <c r="AJ1" s="97"/>
@@ -1381,16 +1387,16 @@
       <c r="BF1" s="97"/>
       <c r="BG1" s="97"/>
       <c r="BH1" s="97"/>
-      <c r="BI1" s="98"/>
-      <c r="BJ1" s="84" t="s">
+      <c r="BI1" s="97"/>
+      <c r="BJ1" s="97"/>
+      <c r="BK1" s="97"/>
+      <c r="BL1" s="98"/>
+      <c r="BM1" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="BK1" s="85"/>
-      <c r="BL1" s="85"/>
-      <c r="BM1" s="86"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
+      <c r="BN1" s="85"/>
+      <c r="BO1" s="85"/>
+      <c r="BP1" s="86"/>
       <c r="BQ1" s="21"/>
       <c r="BR1" s="21"/>
       <c r="BS1" s="21"/>
@@ -1400,8 +1406,11 @@
       <c r="BW1" s="21"/>
       <c r="BX1" s="21"/>
       <c r="BY1" s="21"/>
-    </row>
-    <row r="2" spans="1:78" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+    </row>
+    <row r="2" spans="1:81" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="94"/>
@@ -1431,12 +1440,12 @@
       <c r="AA2" s="94"/>
       <c r="AB2" s="94"/>
       <c r="AC2" s="94"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="96" t="s">
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
       <c r="AH2" s="97"/>
       <c r="AI2" s="97"/>
       <c r="AJ2" s="97"/>
@@ -1450,12 +1459,12 @@
       <c r="AR2" s="97"/>
       <c r="AS2" s="97"/>
       <c r="AT2" s="97"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="99" t="s">
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="100"/>
       <c r="AY2" s="100"/>
       <c r="AZ2" s="100"/>
       <c r="BA2" s="100"/>
@@ -1466,13 +1475,16 @@
       <c r="BF2" s="100"/>
       <c r="BG2" s="100"/>
       <c r="BH2" s="100"/>
-      <c r="BI2" s="101"/>
-      <c r="BJ2" s="87"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="88"/>
-      <c r="BM2" s="89"/>
-    </row>
-    <row r="3" spans="1:78" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BI2" s="100"/>
+      <c r="BJ2" s="100"/>
+      <c r="BK2" s="100"/>
+      <c r="BL2" s="101"/>
+      <c r="BM2" s="87"/>
+      <c r="BN2" s="88"/>
+      <c r="BO2" s="88"/>
+      <c r="BP2" s="89"/>
+    </row>
+    <row r="3" spans="1:81" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1509,7 +1521,7 @@
       <c r="L3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="36" t="s">
         <v>68</v>
       </c>
       <c r="N3" s="36" t="s">
@@ -1539,145 +1551,152 @@
       <c r="V3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="Z3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="AA3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AB3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AC3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AD3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AE3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AF3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AG3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="36" t="s">
+      <c r="AH3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="102" t="s">
+      <c r="AI3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AH3" s="36" t="s">
+      <c r="AJ3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="102" t="s">
+      <c r="AK3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AL3" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AM3" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AL3" s="17" t="s">
+      <c r="AN3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AO3" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="AN3" s="36" t="s">
+      <c r="AP3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AO3" s="36" t="s">
+      <c r="AQ3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AP3" s="36" t="s">
+      <c r="AR3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="AQ3" s="36" t="s">
+      <c r="AS3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AR3" s="36" t="s">
+      <c r="AT3" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="36" t="s">
+      <c r="AU3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="AT3" s="36" t="s">
+      <c r="AV3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AU3" s="22" t="s">
+      <c r="AW3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AV3" s="20" t="s">
+      <c r="AX3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AW3" s="36" t="s">
+      <c r="AY3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AX3" s="36" t="s">
+      <c r="AZ3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AY3" s="36" t="s">
+      <c r="BA3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="AZ3" s="36" t="s">
+      <c r="BB3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="BA3" s="36" t="s">
+      <c r="BC3" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="BB3" s="36" t="s">
+      <c r="BD3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="BC3" s="36" t="s">
+      <c r="BE3" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="BD3" s="102" t="s">
+      <c r="BF3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="BE3" s="102" t="s">
+      <c r="BG3" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="BF3" s="102" t="s">
+      <c r="BH3" s="102"/>
+      <c r="BI3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="BG3" s="17" t="s">
+      <c r="BJ3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="BH3" s="36" t="s">
+      <c r="BK3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="BI3" s="19" t="s">
+      <c r="BL3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BJ3" s="46" t="s">
+      <c r="BM3" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="BK3" s="72" t="s">
+      <c r="BN3" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="BL3" s="44" t="s">
+      <c r="BO3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="BM3" s="45" t="s">
+      <c r="BP3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="BS3" s="23"/>
-      <c r="BT3" s="23"/>
-      <c r="BU3" s="23"/>
       <c r="BV3" s="23"/>
       <c r="BW3" s="23"/>
       <c r="BX3" s="23"/>
       <c r="BY3" s="23"/>
-      <c r="BZ3" s="30"/>
-    </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BZ3" s="23"/>
+      <c r="CA3" s="23"/>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="30"/>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1713,94 +1732,99 @@
       <c r="AA4" s="52"/>
       <c r="AB4" s="52"/>
       <c r="AC4" s="52"/>
-      <c r="AD4" s="52">
-        <v>5</v>
-      </c>
+      <c r="AD4" s="52"/>
       <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52">
-        <v>0</v>
-      </c>
+      <c r="AF4" s="52">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="52"/>
       <c r="AH4" s="52"/>
       <c r="AI4" s="52">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52">
         <v>0</v>
       </c>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
       <c r="AL4" s="52"/>
-      <c r="AM4" s="52">
-        <v>5</v>
-      </c>
+      <c r="AM4" s="52"/>
       <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52">
+      <c r="AO4" s="52">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52">
         <v>4.5</v>
       </c>
-      <c r="AQ4" s="52">
-        <v>5</v>
-      </c>
-      <c r="AR4" s="52"/>
       <c r="AS4" s="52">
         <v>5</v>
       </c>
       <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="43">
+      <c r="AU4" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="43">
         <v>6</v>
       </c>
-      <c r="AW4" s="43">
-        <v>5</v>
-      </c>
-      <c r="AX4" s="43">
-        <v>5</v>
-      </c>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
+      <c r="AY4" s="43">
+        <v>5</v>
+      </c>
+      <c r="AZ4" s="43">
+        <v>5</v>
+      </c>
       <c r="BA4" s="43"/>
-      <c r="BB4" s="43">
-        <v>5</v>
-      </c>
-      <c r="BC4" s="43">
-        <v>5</v>
-      </c>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="43">
+        <v>5</v>
+      </c>
+      <c r="BE4" s="43">
+        <v>5</v>
+      </c>
       <c r="BF4" s="43"/>
-      <c r="BG4" s="25">
+      <c r="BG4" s="43">
+        <v>5</v>
+      </c>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="25">
         <v>2</v>
       </c>
-      <c r="BH4" s="43">
-        <v>5</v>
-      </c>
-      <c r="BI4" s="25">
+      <c r="BK4" s="43">
+        <v>5</v>
+      </c>
+      <c r="BL4" s="25">
         <v>3</v>
       </c>
-      <c r="BJ4" s="67">
-        <f t="shared" ref="BJ4:BJ11" si="0">COUNTIF(B4:BI4, "&gt; 5")</f>
-        <v>1</v>
-      </c>
-      <c r="BK4" s="59">
-        <f t="shared" ref="BK4:BK11" si="1">COUNTIF(B4:BI4, "&gt; 1")</f>
-        <v>13</v>
-      </c>
-      <c r="BL4" s="70">
-        <f t="shared" ref="BL4:BL11" si="2">COUNTIF(B4:BI4, "1")</f>
+      <c r="BM4" s="67">
+        <f t="shared" ref="BM4:BM11" si="0">COUNTIF(B4:BL4, "&gt; 5")</f>
+        <v>1</v>
+      </c>
+      <c r="BN4" s="59">
+        <f t="shared" ref="BN4:BN11" si="1">COUNTIF(B4:BL4, "&gt; 1")</f>
+        <v>15</v>
+      </c>
+      <c r="BO4" s="70">
+        <f t="shared" ref="BO4:BO11" si="2">COUNTIF(B4:BL4, "1")</f>
         <v>2</v>
       </c>
-      <c r="BM4" s="48">
-        <f t="shared" ref="BM4:BM11" si="3">ROUND(SUMIF(B4:BI4, "&gt; 1") / BK4, 2) + BL4 * 0.1</f>
-        <v>4.8500000000000005</v>
-      </c>
-      <c r="BR4" s="16"/>
-      <c r="BS4" s="16"/>
-      <c r="BT4" s="16"/>
+      <c r="BP4" s="48">
+        <f t="shared" ref="BP4:BP11" si="3">ROUND(SUMIF(B4:BL4, "&gt; 1") / BN4, 2) + BO4 * 0.1</f>
+        <v>4.9000000000000004</v>
+      </c>
       <c r="BU4" s="16"/>
       <c r="BV4" s="16"/>
       <c r="BW4" s="16"/>
       <c r="BX4" s="16"/>
       <c r="BY4" s="16"/>
-    </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1832,21 +1856,23 @@
         <v>1</v>
       </c>
       <c r="W5" s="63">
+        <v>1</v>
+      </c>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63">
         <v>0</v>
       </c>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="63">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="43">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="63">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="43">
+        <v>5</v>
+      </c>
       <c r="AE5" s="43"/>
       <c r="AF5" s="43"/>
       <c r="AG5" s="43"/>
@@ -1867,51 +1893,54 @@
       <c r="AV5" s="43"/>
       <c r="AW5" s="43"/>
       <c r="AX5" s="43"/>
-      <c r="AY5" s="43">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="43">
-        <v>5</v>
-      </c>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
       <c r="BA5" s="43">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="43">
+        <v>5</v>
+      </c>
+      <c r="BC5" s="43">
         <v>4</v>
       </c>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
       <c r="BD5" s="43"/>
       <c r="BE5" s="43"/>
       <c r="BF5" s="43"/>
       <c r="BG5" s="43"/>
       <c r="BH5" s="43"/>
-      <c r="BI5" s="63">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="68">
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="63">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BK5" s="60">
+      <c r="BN5" s="60">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="BL5" s="71">
+      <c r="BO5" s="71">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="BM5" s="49">
+        <v>4</v>
+      </c>
+      <c r="BP5" s="49">
         <f t="shared" si="3"/>
-        <v>5.2299999999999995</v>
-      </c>
-      <c r="BR5" s="16"/>
-      <c r="BS5" s="16"/>
-      <c r="BT5" s="16"/>
+        <v>5.33</v>
+      </c>
       <c r="BU5" s="16"/>
       <c r="BV5" s="16"/>
       <c r="BW5" s="16"/>
       <c r="BX5" s="16"/>
       <c r="BY5" s="16"/>
-    </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -1962,11 +1991,11 @@
       <c r="Z6" s="43"/>
       <c r="AA6" s="43"/>
       <c r="AB6" s="43"/>
-      <c r="AC6" s="43">
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43">
         <v>5.5</v>
       </c>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
       <c r="AF6" s="43"/>
       <c r="AG6" s="43"/>
       <c r="AH6" s="43"/>
@@ -1996,32 +2025,35 @@
       <c r="BF6" s="43"/>
       <c r="BG6" s="43"/>
       <c r="BH6" s="43"/>
-      <c r="BI6" s="55"/>
-      <c r="BJ6" s="68">
+      <c r="BI6" s="43"/>
+      <c r="BJ6" s="43"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="55"/>
+      <c r="BM6" s="68">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BK6" s="60">
+      <c r="BN6" s="60">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="BL6" s="71">
+      <c r="BO6" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BM6" s="49">
+      <c r="BP6" s="49">
         <f t="shared" si="3"/>
         <v>5.15</v>
       </c>
-      <c r="BS6" s="16"/>
-      <c r="BT6" s="16"/>
-      <c r="BU6" s="16"/>
       <c r="BV6" s="16"/>
       <c r="BW6" s="16"/>
       <c r="BX6" s="16"/>
       <c r="BY6" s="16"/>
-    </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2076,9 @@
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
       <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
+      <c r="M7" s="43">
+        <v>5</v>
+      </c>
       <c r="N7" s="43">
         <v>5</v>
       </c>
@@ -2098,33 +2132,36 @@
       <c r="BF7" s="43"/>
       <c r="BG7" s="43"/>
       <c r="BH7" s="43"/>
-      <c r="BI7" s="55"/>
-      <c r="BJ7" s="68">
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="55"/>
+      <c r="BM7" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BK7" s="60">
+      <c r="BN7" s="60">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="BL7" s="71">
+        <v>8</v>
+      </c>
+      <c r="BO7" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BM7" s="49">
+      <c r="BP7" s="49">
         <f t="shared" si="3"/>
-        <v>5.07</v>
-      </c>
-      <c r="BR7" s="16"/>
-      <c r="BS7" s="16"/>
-      <c r="BT7" s="16"/>
+        <v>5.0599999999999996</v>
+      </c>
       <c r="BU7" s="16"/>
       <c r="BV7" s="16"/>
       <c r="BW7" s="16"/>
       <c r="BX7" s="16"/>
       <c r="BY7" s="16"/>
-    </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16"/>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -2150,24 +2187,26 @@
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
       <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
+      <c r="X8" s="43">
+        <v>0</v>
+      </c>
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
       <c r="AA8" s="43"/>
       <c r="AB8" s="43"/>
       <c r="AC8" s="43"/>
       <c r="AD8" s="43"/>
-      <c r="AE8" s="43">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="63">
-        <v>1</v>
-      </c>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
       <c r="AG8" s="43">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="43">
         <v>4.5</v>
       </c>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
       <c r="AJ8" s="43"/>
       <c r="AK8" s="43"/>
       <c r="AL8" s="43"/>
@@ -2179,11 +2218,11 @@
       <c r="AR8" s="43"/>
       <c r="AS8" s="43"/>
       <c r="AT8" s="43"/>
-      <c r="AU8" s="43">
-        <v>5</v>
-      </c>
+      <c r="AU8" s="43"/>
       <c r="AV8" s="43"/>
-      <c r="AW8" s="43"/>
+      <c r="AW8" s="43">
+        <v>5</v>
+      </c>
       <c r="AX8" s="43"/>
       <c r="AY8" s="43"/>
       <c r="AZ8" s="43"/>
@@ -2195,33 +2234,36 @@
       <c r="BF8" s="43"/>
       <c r="BG8" s="43"/>
       <c r="BH8" s="43"/>
-      <c r="BI8" s="55"/>
-      <c r="BJ8" s="68">
+      <c r="BI8" s="43"/>
+      <c r="BJ8" s="43"/>
+      <c r="BK8" s="43"/>
+      <c r="BL8" s="55"/>
+      <c r="BM8" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BK8" s="60">
+      <c r="BN8" s="60">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="BL8" s="71">
+      <c r="BO8" s="71">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BM8" s="49">
+      <c r="BP8" s="49">
         <f t="shared" si="3"/>
         <v>4.93</v>
       </c>
-      <c r="BR8" s="16"/>
-      <c r="BS8" s="16"/>
-      <c r="BT8" s="16"/>
       <c r="BU8" s="16"/>
       <c r="BV8" s="16"/>
       <c r="BW8" s="16"/>
       <c r="BX8" s="16"/>
       <c r="BY8" s="16"/>
-    </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BZ8" s="16"/>
+      <c r="CA8" s="16"/>
+      <c r="CB8" s="16"/>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
@@ -2247,50 +2289,52 @@
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
       <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
+      <c r="X9" s="43">
+        <v>0</v>
+      </c>
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="43"/>
       <c r="AC9" s="43"/>
       <c r="AD9" s="43"/>
-      <c r="AE9" s="63">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="63">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="63">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="63">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="25">
         <v>5.5</v>
       </c>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
       <c r="AK9" s="43"/>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
-      <c r="AN9" s="43">
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43">
         <v>4.25</v>
       </c>
-      <c r="AO9" s="43">
-        <v>5</v>
-      </c>
-      <c r="AP9" s="43"/>
       <c r="AQ9" s="43">
         <v>5</v>
       </c>
-      <c r="AR9" s="43">
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43">
+        <v>5</v>
+      </c>
+      <c r="AT9" s="43">
         <v>4.5</v>
       </c>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43">
-        <v>5</v>
-      </c>
-      <c r="AU9" s="43">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43">
+        <v>5</v>
+      </c>
+      <c r="AW9" s="43">
+        <v>1</v>
+      </c>
       <c r="AX9" s="43"/>
       <c r="AY9" s="43"/>
       <c r="AZ9" s="43"/>
@@ -2302,33 +2346,36 @@
       <c r="BF9" s="43"/>
       <c r="BG9" s="43"/>
       <c r="BH9" s="43"/>
-      <c r="BI9" s="55"/>
-      <c r="BJ9" s="68">
+      <c r="BI9" s="43"/>
+      <c r="BJ9" s="43"/>
+      <c r="BK9" s="43"/>
+      <c r="BL9" s="55"/>
+      <c r="BM9" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BK9" s="60">
+      <c r="BN9" s="60">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="BL9" s="71">
+      <c r="BO9" s="71">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="BM9" s="49">
+      <c r="BP9" s="49">
         <f t="shared" si="3"/>
         <v>5.18</v>
       </c>
-      <c r="BR9" s="16"/>
-      <c r="BS9" s="16"/>
-      <c r="BT9" s="16"/>
       <c r="BU9" s="16"/>
       <c r="BV9" s="16"/>
       <c r="BW9" s="16"/>
       <c r="BX9" s="16"/>
       <c r="BY9" s="16"/>
-    </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -2354,24 +2401,26 @@
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
       <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
+      <c r="X10" s="43">
+        <v>0</v>
+      </c>
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
       <c r="AA10" s="43"/>
       <c r="AB10" s="43"/>
       <c r="AC10" s="43"/>
       <c r="AD10" s="43"/>
-      <c r="AE10" s="43">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="43">
-        <v>5</v>
-      </c>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
       <c r="AG10" s="43">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="43">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="43">
         <v>4.5</v>
       </c>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
       <c r="AJ10" s="43"/>
       <c r="AK10" s="43"/>
       <c r="AL10" s="43"/>
@@ -2383,11 +2432,11 @@
       <c r="AR10" s="43"/>
       <c r="AS10" s="43"/>
       <c r="AT10" s="43"/>
-      <c r="AU10" s="43">
-        <v>5</v>
-      </c>
+      <c r="AU10" s="43"/>
       <c r="AV10" s="43"/>
-      <c r="AW10" s="43"/>
+      <c r="AW10" s="43">
+        <v>5</v>
+      </c>
       <c r="AX10" s="43"/>
       <c r="AY10" s="43"/>
       <c r="AZ10" s="43"/>
@@ -2399,33 +2448,36 @@
       <c r="BF10" s="43"/>
       <c r="BG10" s="43"/>
       <c r="BH10" s="43"/>
-      <c r="BI10" s="55"/>
-      <c r="BJ10" s="68">
+      <c r="BI10" s="43"/>
+      <c r="BJ10" s="43"/>
+      <c r="BK10" s="43"/>
+      <c r="BL10" s="55"/>
+      <c r="BM10" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BK10" s="60">
+      <c r="BN10" s="60">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="BL10" s="71">
+      <c r="BO10" s="71">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BM10" s="49">
+      <c r="BP10" s="49">
         <f t="shared" si="3"/>
         <v>4.93</v>
       </c>
-      <c r="BR10" s="16"/>
-      <c r="BS10" s="16"/>
-      <c r="BT10" s="16"/>
       <c r="BU10" s="16"/>
       <c r="BV10" s="16"/>
       <c r="BW10" s="16"/>
       <c r="BX10" s="16"/>
       <c r="BY10" s="16"/>
-    </row>
-    <row r="11" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BZ10" s="16"/>
+      <c r="CA10" s="16"/>
+      <c r="CB10" s="16"/>
+    </row>
+    <row r="11" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -2454,21 +2506,23 @@
       <c r="V11" s="57">
         <v>4</v>
       </c>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="57">
-        <v>5</v>
-      </c>
+      <c r="W11" s="57">
+        <v>5.5</v>
+      </c>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
       <c r="Z11" s="57">
         <v>5</v>
       </c>
       <c r="AA11" s="57">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
+        <v>5</v>
+      </c>
+      <c r="AB11" s="57">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="57">
+        <v>1</v>
+      </c>
       <c r="AD11" s="57"/>
       <c r="AE11" s="57"/>
       <c r="AF11" s="57"/>
@@ -2500,36 +2554,36 @@
       <c r="BF11" s="57"/>
       <c r="BG11" s="57"/>
       <c r="BH11" s="57"/>
-      <c r="BI11" s="58"/>
-      <c r="BJ11" s="69">
+      <c r="BI11" s="57"/>
+      <c r="BJ11" s="57"/>
+      <c r="BK11" s="57"/>
+      <c r="BL11" s="58"/>
+      <c r="BM11" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BK11" s="61">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="61">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BL11" s="47">
+        <v>6</v>
+      </c>
+      <c r="BO11" s="47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BM11" s="50">
+      <c r="BP11" s="50">
         <f t="shared" si="3"/>
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="BR11" s="16"/>
-      <c r="BS11" s="16"/>
-      <c r="BT11" s="16"/>
+        <v>4.8499999999999996</v>
+      </c>
       <c r="BU11" s="16"/>
       <c r="BV11" s="16"/>
       <c r="BW11" s="16"/>
       <c r="BX11" s="16"/>
       <c r="BY11" s="16"/>
-    </row>
-    <row r="13" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="21"/>
+      <c r="BZ11" s="16"/>
+      <c r="CA11" s="16"/>
+      <c r="CB11" s="16"/>
+    </row>
+    <row r="13" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BN13" s="21"/>
       <c r="BO13" s="21"/>
       <c r="BP13" s="21"/>
@@ -2542,8 +2596,11 @@
       <c r="BW13" s="21"/>
       <c r="BX13" s="21"/>
       <c r="BY13" s="21"/>
-    </row>
-    <row r="14" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BZ13" s="21"/>
+      <c r="CA13" s="21"/>
+      <c r="CB13" s="21"/>
+    </row>
+    <row r="14" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="79" t="s">
         <v>57</v>
       </c>
@@ -2576,9 +2633,11 @@
       <c r="AC14" s="80"/>
       <c r="AD14" s="80"/>
       <c r="AE14" s="80"/>
-      <c r="AF14" s="81"/>
-    </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="81"/>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
       <c r="C15" s="82" t="s">
         <v>23</v>
@@ -2611,9 +2670,11 @@
       <c r="AC15" s="82"/>
       <c r="AD15" s="82"/>
       <c r="AE15" s="82"/>
-      <c r="AF15" s="83"/>
-    </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="83"/>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="77" t="s">
         <v>24</v>
@@ -2646,9 +2707,11 @@
       <c r="AC16" s="77"/>
       <c r="AD16" s="77"/>
       <c r="AE16" s="77"/>
-      <c r="AF16" s="78"/>
-    </row>
-    <row r="17" spans="2:77" x14ac:dyDescent="0.25">
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="78"/>
+    </row>
+    <row r="17" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="77" t="s">
         <v>25</v>
@@ -2681,9 +2744,11 @@
       <c r="AC17" s="77"/>
       <c r="AD17" s="77"/>
       <c r="AE17" s="77"/>
-      <c r="AF17" s="78"/>
-    </row>
-    <row r="18" spans="2:77" x14ac:dyDescent="0.25">
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="78"/>
+    </row>
+    <row r="18" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="77" t="s">
         <v>60</v>
@@ -2716,9 +2781,11 @@
       <c r="AC18" s="77"/>
       <c r="AD18" s="77"/>
       <c r="AE18" s="77"/>
-      <c r="AF18" s="78"/>
-    </row>
-    <row r="19" spans="2:77" x14ac:dyDescent="0.25">
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="78"/>
+    </row>
+    <row r="19" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
       <c r="C19" s="77" t="s">
         <v>26</v>
@@ -2751,9 +2818,11 @@
       <c r="AC19" s="77"/>
       <c r="AD19" s="77"/>
       <c r="AE19" s="77"/>
-      <c r="AF19" s="78"/>
-    </row>
-    <row r="20" spans="2:77" x14ac:dyDescent="0.25">
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="78"/>
+    </row>
+    <row r="20" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
       <c r="C20" s="77" t="s">
         <v>54</v>
@@ -2786,9 +2855,9 @@
       <c r="AC20" s="77"/>
       <c r="AD20" s="77"/>
       <c r="AE20" s="77"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="78"/>
       <c r="AI20" s="21"/>
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
@@ -2817,9 +2886,9 @@
       <c r="BH20" s="21"/>
       <c r="BI20" s="21"/>
       <c r="BJ20" s="21"/>
-      <c r="BK20" s="29"/>
-      <c r="BL20" s="29"/>
-      <c r="BM20" s="29"/>
+      <c r="BK20" s="21"/>
+      <c r="BL20" s="21"/>
+      <c r="BM20" s="21"/>
       <c r="BN20" s="29"/>
       <c r="BO20" s="29"/>
       <c r="BP20" s="29"/>
@@ -2832,8 +2901,11 @@
       <c r="BW20" s="29"/>
       <c r="BX20" s="29"/>
       <c r="BY20" s="29"/>
-    </row>
-    <row r="21" spans="2:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BZ20" s="29"/>
+      <c r="CA20" s="29"/>
+      <c r="CB20" s="29"/>
+    </row>
+    <row r="21" spans="2:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
       <c r="C21" s="75" t="s">
         <v>67</v>
@@ -2866,9 +2938,9 @@
       <c r="AC21" s="75"/>
       <c r="AD21" s="75"/>
       <c r="AE21" s="75"/>
-      <c r="AF21" s="76"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="76"/>
       <c r="AI21" s="39"/>
       <c r="AJ21" s="39"/>
       <c r="AK21" s="39"/>
@@ -2897,9 +2969,9 @@
       <c r="BH21" s="39"/>
       <c r="BI21" s="39"/>
       <c r="BJ21" s="39"/>
-      <c r="BK21" s="29"/>
-      <c r="BL21" s="29"/>
-      <c r="BM21" s="29"/>
+      <c r="BK21" s="39"/>
+      <c r="BL21" s="39"/>
+      <c r="BM21" s="39"/>
       <c r="BN21" s="29"/>
       <c r="BO21" s="29"/>
       <c r="BP21" s="29"/>
@@ -2912,8 +2984,11 @@
       <c r="BW21" s="29"/>
       <c r="BX21" s="29"/>
       <c r="BY21" s="29"/>
-    </row>
-    <row r="22" spans="2:77" x14ac:dyDescent="0.25">
+      <c r="BZ21" s="29"/>
+      <c r="CA21" s="29"/>
+      <c r="CB21" s="29"/>
+    </row>
+    <row r="22" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -2975,9 +3050,9 @@
       <c r="BH22" s="39"/>
       <c r="BI22" s="39"/>
       <c r="BJ22" s="39"/>
-      <c r="BK22" s="29"/>
-      <c r="BL22" s="29"/>
-      <c r="BM22" s="29"/>
+      <c r="BK22" s="39"/>
+      <c r="BL22" s="39"/>
+      <c r="BM22" s="39"/>
       <c r="BN22" s="29"/>
       <c r="BO22" s="29"/>
       <c r="BP22" s="29"/>
@@ -2990,8 +3065,11 @@
       <c r="BW22" s="29"/>
       <c r="BX22" s="29"/>
       <c r="BY22" s="29"/>
-    </row>
-    <row r="23" spans="2:77" x14ac:dyDescent="0.25">
+      <c r="BZ22" s="29"/>
+      <c r="CA22" s="29"/>
+      <c r="CB22" s="29"/>
+    </row>
+    <row r="23" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -3053,9 +3131,9 @@
       <c r="BH23" s="39"/>
       <c r="BI23" s="39"/>
       <c r="BJ23" s="39"/>
-      <c r="BK23" s="29"/>
-      <c r="BL23" s="29"/>
-      <c r="BM23" s="29"/>
+      <c r="BK23" s="39"/>
+      <c r="BL23" s="39"/>
+      <c r="BM23" s="39"/>
       <c r="BN23" s="29"/>
       <c r="BO23" s="29"/>
       <c r="BP23" s="29"/>
@@ -3068,8 +3146,11 @@
       <c r="BW23" s="29"/>
       <c r="BX23" s="29"/>
       <c r="BY23" s="29"/>
-    </row>
-    <row r="24" spans="2:77" x14ac:dyDescent="0.25">
+      <c r="BZ23" s="29"/>
+      <c r="CA23" s="29"/>
+      <c r="CB23" s="29"/>
+    </row>
+    <row r="24" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
@@ -3131,8 +3212,11 @@
       <c r="BH24" s="39"/>
       <c r="BI24" s="39"/>
       <c r="BJ24" s="39"/>
-    </row>
-    <row r="25" spans="2:77" x14ac:dyDescent="0.25">
+      <c r="BK24" s="39"/>
+      <c r="BL24" s="39"/>
+      <c r="BM24" s="39"/>
+    </row>
+    <row r="25" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -3194,26 +3278,29 @@
       <c r="BH25" s="39"/>
       <c r="BI25" s="39"/>
       <c r="BJ25" s="39"/>
+      <c r="BK25" s="39"/>
+      <c r="BL25" s="39"/>
+      <c r="BM25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="BJ1:BM2"/>
-    <mergeCell ref="C20:AF20"/>
+    <mergeCell ref="BM1:BP2"/>
+    <mergeCell ref="C20:AH20"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:S2"/>
-    <mergeCell ref="T1:AD2"/>
-    <mergeCell ref="AE2:AU2"/>
-    <mergeCell ref="AE1:BI1"/>
-    <mergeCell ref="AV2:BI2"/>
-    <mergeCell ref="C21:AF21"/>
-    <mergeCell ref="C17:AF17"/>
-    <mergeCell ref="C18:AF18"/>
-    <mergeCell ref="C19:AF19"/>
-    <mergeCell ref="B14:AF14"/>
-    <mergeCell ref="C15:AF15"/>
-    <mergeCell ref="C16:AF16"/>
+    <mergeCell ref="T1:AF2"/>
+    <mergeCell ref="AG2:AW2"/>
+    <mergeCell ref="AG1:BL1"/>
+    <mergeCell ref="AX2:BL2"/>
+    <mergeCell ref="C21:AH21"/>
+    <mergeCell ref="C17:AH17"/>
+    <mergeCell ref="C18:AH18"/>
+    <mergeCell ref="C19:AH19"/>
+    <mergeCell ref="B14:AH14"/>
+    <mergeCell ref="C15:AH15"/>
+    <mergeCell ref="C16:AH16"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:BI11">
+  <conditionalFormatting sqref="B4:BL11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -3232,7 +3319,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3393,9 @@
       <c r="H2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
@@ -3336,7 +3425,9 @@
       <c r="H3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -3366,7 +3457,9 @@
       <c r="H4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
@@ -3396,7 +3489,9 @@
       <c r="H5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
@@ -3426,7 +3521,9 @@
       <c r="H6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="33">
+        <v>0</v>
+      </c>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
@@ -3456,7 +3553,9 @@
       <c r="H7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
@@ -3486,7 +3585,9 @@
       <c r="H8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
@@ -3516,7 +3617,9 @@
       <c r="H9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>

--- a/docs/Статистика по команде.xlsx
+++ b/docs/Статистика по команде.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PicHub\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PicHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1573090-214C-4040-8CBA-17F1F687BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE98BBB6-C933-45EF-99D2-6AF974B03C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пулл Задач" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Пользователь</author>
   </authors>
   <commentList>
-    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{D8DCEE99-EBC8-4E49-827A-2454BD639775}">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{D8DCEE99-EBC8-4E49-827A-2454BD639775}">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Сделать возможность перетаскивания изображений для загрузки</t>
         </r>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
   <si>
     <t>Барышников Илья</t>
   </si>
@@ -351,6 +352,12 @@
   </si>
   <si>
     <t>Интеллектуальная карта</t>
+  </si>
+  <si>
+    <t>Главная страница пагинация, фильтры</t>
+  </si>
+  <si>
+    <t>Видео отчет о программе</t>
   </si>
 </sst>
 </file>
@@ -453,7 +460,8 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="12">
@@ -705,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -895,6 +903,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -975,9 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,101 +1315,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB3E128-4FA6-4B2E-888B-7DF6C459E43A}">
-  <dimension ref="A1:CC25"/>
+  <dimension ref="A1:CE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BH6" sqref="BH6"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="64" width="2.85546875" customWidth="1"/>
-    <col min="65" max="68" width="6.28515625" customWidth="1"/>
-    <col min="69" max="80" width="2.7109375" customWidth="1"/>
+    <col min="2" max="66" width="2.85546875" customWidth="1"/>
+    <col min="67" max="70" width="6.28515625" customWidth="1"/>
+    <col min="71" max="82" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:83" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="90" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="96" t="s">
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="97"/>
-      <c r="AV1" s="97"/>
-      <c r="AW1" s="97"/>
-      <c r="AX1" s="97"/>
-      <c r="AY1" s="97"/>
-      <c r="AZ1" s="97"/>
-      <c r="BA1" s="97"/>
-      <c r="BB1" s="97"/>
-      <c r="BC1" s="97"/>
-      <c r="BD1" s="97"/>
-      <c r="BE1" s="97"/>
-      <c r="BF1" s="97"/>
-      <c r="BG1" s="97"/>
-      <c r="BH1" s="97"/>
-      <c r="BI1" s="97"/>
-      <c r="BJ1" s="97"/>
-      <c r="BK1" s="97"/>
-      <c r="BL1" s="98"/>
-      <c r="BM1" s="84" t="s">
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="99"/>
+      <c r="BD1" s="99"/>
+      <c r="BE1" s="99"/>
+      <c r="BF1" s="99"/>
+      <c r="BG1" s="99"/>
+      <c r="BH1" s="99"/>
+      <c r="BI1" s="99"/>
+      <c r="BJ1" s="99"/>
+      <c r="BK1" s="99"/>
+      <c r="BL1" s="99"/>
+      <c r="BM1" s="99"/>
+      <c r="BN1" s="100"/>
+      <c r="BO1" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="BN1" s="85"/>
-      <c r="BO1" s="85"/>
-      <c r="BP1" s="86"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
+      <c r="BP1" s="87"/>
+      <c r="BQ1" s="87"/>
+      <c r="BR1" s="88"/>
       <c r="BS1" s="21"/>
       <c r="BT1" s="21"/>
       <c r="BU1" s="21"/>
@@ -1409,82 +1420,86 @@
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
-    </row>
-    <row r="2" spans="1:81" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="96" t="s">
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+    </row>
+    <row r="2" spans="1:83" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="98"/>
-      <c r="AX2" s="99" t="s">
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="99"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="99"/>
+      <c r="AW2" s="99"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="100"/>
-      <c r="BD2" s="100"/>
-      <c r="BE2" s="100"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="100"/>
-      <c r="BH2" s="100"/>
-      <c r="BI2" s="100"/>
-      <c r="BJ2" s="100"/>
-      <c r="BK2" s="100"/>
-      <c r="BL2" s="101"/>
-      <c r="BM2" s="87"/>
-      <c r="BN2" s="88"/>
-      <c r="BO2" s="88"/>
-      <c r="BP2" s="89"/>
-    </row>
-    <row r="3" spans="1:81" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
+      <c r="BH2" s="102"/>
+      <c r="BI2" s="102"/>
+      <c r="BJ2" s="102"/>
+      <c r="BK2" s="102"/>
+      <c r="BL2" s="102"/>
+      <c r="BM2" s="102"/>
+      <c r="BN2" s="103"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="90"/>
+      <c r="BQ2" s="90"/>
+      <c r="BR2" s="91"/>
+    </row>
+    <row r="3" spans="1:83" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1554,149 +1569,157 @@
       <c r="W3" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="18" t="s">
         <v>95</v>
       </c>
       <c r="Y3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AB3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AC3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AD3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AE3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AF3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="22" t="s">
+      <c r="AG3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AH3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AH3" s="36" t="s">
+      <c r="AI3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AJ3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AJ3" s="36" t="s">
+      <c r="AK3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="17" t="s">
+      <c r="AL3" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="AL3" s="17" t="s">
+      <c r="AM3" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AN3" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AO3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AP3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AP3" s="36" t="s">
+      <c r="AQ3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AQ3" s="36" t="s">
+      <c r="AR3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AR3" s="36" t="s">
+      <c r="AS3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="AS3" s="36" t="s">
+      <c r="AT3" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AT3" s="36" t="s">
+      <c r="AU3" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AU3" s="36" t="s">
+      <c r="AV3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="AV3" s="36" t="s">
+      <c r="AW3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AW3" s="22" t="s">
+      <c r="AX3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AX3" s="20" t="s">
+      <c r="AY3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AY3" s="36" t="s">
+      <c r="AZ3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AZ3" s="36" t="s">
+      <c r="BA3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="BA3" s="36" t="s">
+      <c r="BB3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="BB3" s="36" t="s">
+      <c r="BC3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="BC3" s="36" t="s">
+      <c r="BD3" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="BD3" s="36" t="s">
+      <c r="BE3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="BE3" s="36" t="s">
+      <c r="BF3" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="BF3" s="17" t="s">
+      <c r="BG3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="BG3" s="36" t="s">
+      <c r="BH3" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="17" t="s">
+      <c r="BI3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ3" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="BJ3" s="17" t="s">
+      <c r="BL3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="BK3" s="36" t="s">
+      <c r="BM3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="BL3" s="19" t="s">
+      <c r="BN3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BM3" s="46" t="s">
+      <c r="BO3" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="BN3" s="72" t="s">
+      <c r="BP3" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="BO3" s="44" t="s">
+      <c r="BQ3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="BP3" s="45" t="s">
+      <c r="BR3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="BV3" s="23"/>
-      <c r="BW3" s="23"/>
       <c r="BX3" s="23"/>
       <c r="BY3" s="23"/>
       <c r="BZ3" s="23"/>
       <c r="CA3" s="23"/>
       <c r="CB3" s="23"/>
-      <c r="CC3" s="30"/>
-    </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC3" s="23"/>
+      <c r="CD3" s="23"/>
+      <c r="CE3" s="30"/>
+    </row>
+    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1734,97 +1757,102 @@
       <c r="AC4" s="52"/>
       <c r="AD4" s="52"/>
       <c r="AE4" s="52"/>
-      <c r="AF4" s="52">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52">
+        <v>5</v>
+      </c>
       <c r="AH4" s="52"/>
-      <c r="AI4" s="52">
-        <v>5</v>
-      </c>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="76">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52">
+        <v>5</v>
+      </c>
       <c r="AM4" s="52"/>
       <c r="AN4" s="52"/>
-      <c r="AO4" s="52">
-        <v>5</v>
-      </c>
-      <c r="AP4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52">
+        <v>5</v>
+      </c>
       <c r="AQ4" s="52"/>
-      <c r="AR4" s="52">
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52">
         <v>4.5</v>
       </c>
-      <c r="AS4" s="52">
-        <v>5</v>
-      </c>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52">
-        <v>5</v>
-      </c>
-      <c r="AV4" s="52"/>
+      <c r="AT4" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52">
+        <v>5</v>
+      </c>
       <c r="AW4" s="52"/>
-      <c r="AX4" s="43">
-        <v>6</v>
-      </c>
+      <c r="AX4" s="52"/>
       <c r="AY4" s="43">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ4" s="43">
         <v>5</v>
       </c>
-      <c r="BA4" s="43"/>
+      <c r="BA4" s="43">
+        <v>5</v>
+      </c>
       <c r="BB4" s="43"/>
       <c r="BC4" s="43"/>
-      <c r="BD4" s="43">
-        <v>5</v>
-      </c>
+      <c r="BD4" s="43"/>
       <c r="BE4" s="43">
         <v>5</v>
       </c>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43">
-        <v>5</v>
-      </c>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
+      <c r="BF4" s="43">
+        <v>5</v>
+      </c>
+      <c r="BG4" s="25">
+        <v>2</v>
+      </c>
+      <c r="BH4" s="43">
+        <v>5</v>
+      </c>
       <c r="BJ4" s="25">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="25">
         <v>2</v>
       </c>
-      <c r="BK4" s="43">
-        <v>5</v>
-      </c>
-      <c r="BL4" s="25">
+      <c r="BM4" s="43">
+        <v>5</v>
+      </c>
+      <c r="BN4" s="25">
         <v>3</v>
       </c>
-      <c r="BM4" s="67">
-        <f t="shared" ref="BM4:BM11" si="0">COUNTIF(B4:BL4, "&gt; 5")</f>
-        <v>1</v>
-      </c>
-      <c r="BN4" s="59">
-        <f t="shared" ref="BN4:BN11" si="1">COUNTIF(B4:BL4, "&gt; 1")</f>
-        <v>15</v>
-      </c>
-      <c r="BO4" s="70">
-        <f t="shared" ref="BO4:BO11" si="2">COUNTIF(B4:BL4, "1")</f>
+      <c r="BO4" s="67">
+        <f t="shared" ref="BO4:BO11" si="0">COUNTIF(B4:BN4, "&gt; 5")</f>
         <v>2</v>
       </c>
-      <c r="BP4" s="48">
-        <f t="shared" ref="BP4:BP11" si="3">ROUND(SUMIF(B4:BL4, "&gt; 1") / BN4, 2) + BO4 * 0.1</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BU4" s="16"/>
-      <c r="BV4" s="16"/>
+      <c r="BP4" s="59">
+        <f t="shared" ref="BP4:BP11" si="1">COUNTIF(B4:BN4, "&gt; 1")</f>
+        <v>18</v>
+      </c>
+      <c r="BQ4" s="70">
+        <f t="shared" ref="BQ4:BQ11" si="2">COUNTIF(B4:BN4, "1")</f>
+        <v>2</v>
+      </c>
+      <c r="BR4" s="48">
+        <f t="shared" ref="BR4:BR11" si="3">ROUND(SUMIF(B4:BN4, "&gt; 1") / BP4, 2) + BQ4 * 0.1</f>
+        <v>4.7</v>
+      </c>
       <c r="BW4" s="16"/>
       <c r="BX4" s="16"/>
       <c r="BY4" s="16"/>
       <c r="BZ4" s="16"/>
       <c r="CA4" s="16"/>
       <c r="CB4" s="16"/>
-    </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+    </row>
+    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1864,16 +1892,16 @@
       </c>
       <c r="Z5" s="63"/>
       <c r="AA5" s="63"/>
-      <c r="AB5" s="63">
-        <v>5</v>
-      </c>
+      <c r="AB5" s="63"/>
       <c r="AC5" s="63">
         <v>5</v>
       </c>
-      <c r="AD5" s="43">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="43"/>
+      <c r="AD5" s="63">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="43">
+        <v>5</v>
+      </c>
       <c r="AF5" s="43"/>
       <c r="AG5" s="43"/>
       <c r="AH5" s="43"/>
@@ -1895,52 +1923,56 @@
       <c r="AX5" s="43"/>
       <c r="AY5" s="43"/>
       <c r="AZ5" s="43"/>
-      <c r="BA5" s="43">
-        <v>5</v>
-      </c>
+      <c r="BA5" s="43"/>
       <c r="BB5" s="43">
         <v>5</v>
       </c>
       <c r="BC5" s="43">
+        <v>5</v>
+      </c>
+      <c r="BD5" s="43">
         <v>4</v>
       </c>
-      <c r="BD5" s="43"/>
       <c r="BE5" s="43"/>
       <c r="BF5" s="43"/>
       <c r="BG5" s="43"/>
       <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
+      <c r="BI5" s="43">
+        <v>5.5</v>
+      </c>
       <c r="BJ5" s="43"/>
       <c r="BK5" s="43"/>
-      <c r="BL5" s="63">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="68">
+      <c r="BL5" s="43"/>
+      <c r="BM5" s="43"/>
+      <c r="BN5" s="63">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="68">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BN5" s="60">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="60">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="BO5" s="71">
+        <v>8</v>
+      </c>
+      <c r="BQ5" s="71">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="BP5" s="49">
+      <c r="BR5" s="49">
         <f t="shared" si="3"/>
-        <v>5.33</v>
-      </c>
-      <c r="BU5" s="16"/>
-      <c r="BV5" s="16"/>
+        <v>5.4</v>
+      </c>
       <c r="BW5" s="16"/>
       <c r="BX5" s="16"/>
       <c r="BY5" s="16"/>
       <c r="BZ5" s="16"/>
       <c r="CA5" s="16"/>
       <c r="CB5" s="16"/>
-    </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+    </row>
+    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -1993,10 +2025,10 @@
       <c r="AB6" s="43"/>
       <c r="AC6" s="43"/>
       <c r="AD6" s="43"/>
-      <c r="AE6" s="43">
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43">
         <v>5.5</v>
       </c>
-      <c r="AF6" s="43"/>
       <c r="AG6" s="43"/>
       <c r="AH6" s="43"/>
       <c r="AI6" s="43"/>
@@ -2028,32 +2060,34 @@
       <c r="BI6" s="43"/>
       <c r="BJ6" s="43"/>
       <c r="BK6" s="43"/>
-      <c r="BL6" s="55"/>
-      <c r="BM6" s="68">
+      <c r="BL6" s="43"/>
+      <c r="BM6" s="43"/>
+      <c r="BN6" s="55"/>
+      <c r="BO6" s="68">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BN6" s="60">
+      <c r="BP6" s="60">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="BO6" s="71">
+      <c r="BQ6" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BP6" s="49">
+      <c r="BR6" s="49">
         <f t="shared" si="3"/>
         <v>5.15</v>
       </c>
-      <c r="BV6" s="16"/>
-      <c r="BW6" s="16"/>
       <c r="BX6" s="16"/>
       <c r="BY6" s="16"/>
       <c r="BZ6" s="16"/>
       <c r="CA6" s="16"/>
       <c r="CB6" s="16"/>
-    </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+    </row>
+    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -2135,33 +2169,35 @@
       <c r="BI7" s="43"/>
       <c r="BJ7" s="43"/>
       <c r="BK7" s="43"/>
-      <c r="BL7" s="55"/>
-      <c r="BM7" s="68">
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="55"/>
+      <c r="BO7" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BN7" s="60">
+      <c r="BP7" s="60">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="BO7" s="71">
+      <c r="BQ7" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BP7" s="49">
+      <c r="BR7" s="49">
         <f t="shared" si="3"/>
         <v>5.0599999999999996</v>
       </c>
-      <c r="BU7" s="16"/>
-      <c r="BV7" s="16"/>
       <c r="BW7" s="16"/>
       <c r="BX7" s="16"/>
       <c r="BY7" s="16"/>
       <c r="BZ7" s="16"/>
       <c r="CA7" s="16"/>
       <c r="CB7" s="16"/>
-    </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+    </row>
+    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2224,7 @@
       <c r="V8" s="43"/>
       <c r="W8" s="43"/>
       <c r="X8" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
@@ -2198,16 +2234,16 @@
       <c r="AD8" s="43"/>
       <c r="AE8" s="43"/>
       <c r="AF8" s="43"/>
-      <c r="AG8" s="43">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="43">
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="63">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="43">
         <v>4.5</v>
       </c>
-      <c r="AJ8" s="43"/>
       <c r="AK8" s="43"/>
       <c r="AL8" s="43"/>
       <c r="AM8" s="43"/>
@@ -2220,10 +2256,10 @@
       <c r="AT8" s="43"/>
       <c r="AU8" s="43"/>
       <c r="AV8" s="43"/>
-      <c r="AW8" s="43">
-        <v>5</v>
-      </c>
-      <c r="AX8" s="43"/>
+      <c r="AW8" s="43"/>
+      <c r="AX8" s="43">
+        <v>5</v>
+      </c>
       <c r="AY8" s="43"/>
       <c r="AZ8" s="43"/>
       <c r="BA8" s="43"/>
@@ -2237,33 +2273,35 @@
       <c r="BI8" s="43"/>
       <c r="BJ8" s="43"/>
       <c r="BK8" s="43"/>
-      <c r="BL8" s="55"/>
-      <c r="BM8" s="68">
+      <c r="BL8" s="43"/>
+      <c r="BM8" s="43"/>
+      <c r="BN8" s="55"/>
+      <c r="BO8" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BN8" s="60">
+      <c r="BP8" s="60">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BO8" s="71">
+        <v>4</v>
+      </c>
+      <c r="BQ8" s="71">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BP8" s="49">
+      <c r="BR8" s="49">
         <f t="shared" si="3"/>
-        <v>4.93</v>
-      </c>
-      <c r="BU8" s="16"/>
-      <c r="BV8" s="16"/>
+        <v>4.9799999999999995</v>
+      </c>
       <c r="BW8" s="16"/>
       <c r="BX8" s="16"/>
       <c r="BY8" s="16"/>
       <c r="BZ8" s="16"/>
       <c r="CA8" s="16"/>
       <c r="CB8" s="16"/>
-    </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC8" s="16"/>
+      <c r="CD8" s="16"/>
+    </row>
+    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2328,7 @@
       <c r="V9" s="43"/>
       <c r="W9" s="43"/>
       <c r="X9" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
@@ -2300,42 +2338,42 @@
       <c r="AD9" s="43"/>
       <c r="AE9" s="43"/>
       <c r="AF9" s="43"/>
-      <c r="AG9" s="63">
-        <v>1</v>
-      </c>
+      <c r="AG9" s="43"/>
       <c r="AH9" s="63">
         <v>1</v>
       </c>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="25">
+      <c r="AI9" s="63">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="25">
         <v>5.5</v>
       </c>
-      <c r="AK9" s="43"/>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
       <c r="AN9" s="43"/>
       <c r="AO9" s="43"/>
-      <c r="AP9" s="43">
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43">
         <v>4.25</v>
       </c>
-      <c r="AQ9" s="43">
-        <v>5</v>
-      </c>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43">
-        <v>5</v>
-      </c>
+      <c r="AR9" s="43">
+        <v>5</v>
+      </c>
+      <c r="AS9" s="43"/>
       <c r="AT9" s="43">
+        <v>5</v>
+      </c>
+      <c r="AU9" s="43">
         <v>4.5</v>
       </c>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43">
-        <v>5</v>
-      </c>
+      <c r="AV9" s="43"/>
       <c r="AW9" s="43">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="43"/>
+        <v>5</v>
+      </c>
+      <c r="AX9" s="43">
+        <v>1</v>
+      </c>
       <c r="AY9" s="43"/>
       <c r="AZ9" s="43"/>
       <c r="BA9" s="43"/>
@@ -2349,33 +2387,35 @@
       <c r="BI9" s="43"/>
       <c r="BJ9" s="43"/>
       <c r="BK9" s="43"/>
-      <c r="BL9" s="55"/>
-      <c r="BM9" s="68">
+      <c r="BL9" s="43"/>
+      <c r="BM9" s="43"/>
+      <c r="BN9" s="55"/>
+      <c r="BO9" s="68">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BN9" s="60">
+      <c r="BP9" s="60">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BO9" s="71">
+        <v>7</v>
+      </c>
+      <c r="BQ9" s="71">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="BP9" s="49">
+      <c r="BR9" s="49">
         <f t="shared" si="3"/>
-        <v>5.18</v>
-      </c>
-      <c r="BU9" s="16"/>
-      <c r="BV9" s="16"/>
+        <v>5.1899999999999995</v>
+      </c>
       <c r="BW9" s="16"/>
       <c r="BX9" s="16"/>
       <c r="BY9" s="16"/>
       <c r="BZ9" s="16"/>
       <c r="CA9" s="16"/>
       <c r="CB9" s="16"/>
-    </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+    </row>
+    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -2402,7 +2442,7 @@
       <c r="V10" s="43"/>
       <c r="W10" s="43"/>
       <c r="X10" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
@@ -2412,16 +2452,16 @@
       <c r="AD10" s="43"/>
       <c r="AE10" s="43"/>
       <c r="AF10" s="43"/>
-      <c r="AG10" s="43">
-        <v>1</v>
-      </c>
+      <c r="AG10" s="43"/>
       <c r="AH10" s="43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="43">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="43">
         <v>4.5</v>
       </c>
-      <c r="AJ10" s="43"/>
       <c r="AK10" s="43"/>
       <c r="AL10" s="43"/>
       <c r="AM10" s="43"/>
@@ -2434,10 +2474,10 @@
       <c r="AT10" s="43"/>
       <c r="AU10" s="43"/>
       <c r="AV10" s="43"/>
-      <c r="AW10" s="43">
-        <v>5</v>
-      </c>
-      <c r="AX10" s="43"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="43">
+        <v>5</v>
+      </c>
       <c r="AY10" s="43"/>
       <c r="AZ10" s="43"/>
       <c r="BA10" s="43"/>
@@ -2451,33 +2491,35 @@
       <c r="BI10" s="43"/>
       <c r="BJ10" s="43"/>
       <c r="BK10" s="43"/>
-      <c r="BL10" s="55"/>
-      <c r="BM10" s="68">
+      <c r="BL10" s="43"/>
+      <c r="BM10" s="43"/>
+      <c r="BN10" s="55"/>
+      <c r="BO10" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BN10" s="60">
+      <c r="BP10" s="60">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BO10" s="71">
+        <v>4</v>
+      </c>
+      <c r="BQ10" s="71">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BP10" s="49">
+      <c r="BR10" s="49">
         <f t="shared" si="3"/>
-        <v>4.93</v>
-      </c>
-      <c r="BU10" s="16"/>
-      <c r="BV10" s="16"/>
+        <v>4.9799999999999995</v>
+      </c>
       <c r="BW10" s="16"/>
       <c r="BX10" s="16"/>
       <c r="BY10" s="16"/>
       <c r="BZ10" s="16"/>
       <c r="CA10" s="16"/>
       <c r="CB10" s="16"/>
-    </row>
-    <row r="11" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CC10" s="16"/>
+      <c r="CD10" s="16"/>
+    </row>
+    <row r="11" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -2511,9 +2553,7 @@
       </c>
       <c r="X11" s="57"/>
       <c r="Y11" s="57"/>
-      <c r="Z11" s="57">
-        <v>5</v>
-      </c>
+      <c r="Z11" s="57"/>
       <c r="AA11" s="57">
         <v>5</v>
       </c>
@@ -2521,9 +2561,11 @@
         <v>5</v>
       </c>
       <c r="AC11" s="57">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="57"/>
+        <v>5</v>
+      </c>
+      <c r="AD11" s="57">
+        <v>1</v>
+      </c>
       <c r="AE11" s="57"/>
       <c r="AF11" s="57"/>
       <c r="AG11" s="57"/>
@@ -2557,35 +2599,35 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="57"/>
       <c r="BK11" s="57"/>
-      <c r="BL11" s="58"/>
-      <c r="BM11" s="69">
+      <c r="BL11" s="57"/>
+      <c r="BM11" s="57"/>
+      <c r="BN11" s="58"/>
+      <c r="BO11" s="69">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BN11" s="61">
+      <c r="BP11" s="61">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="BO11" s="47">
+      <c r="BQ11" s="47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="BP11" s="50">
+      <c r="BR11" s="50">
         <f t="shared" si="3"/>
         <v>4.8499999999999996</v>
       </c>
-      <c r="BU11" s="16"/>
-      <c r="BV11" s="16"/>
       <c r="BW11" s="16"/>
       <c r="BX11" s="16"/>
       <c r="BY11" s="16"/>
       <c r="BZ11" s="16"/>
       <c r="CA11" s="16"/>
       <c r="CB11" s="16"/>
-    </row>
-    <row r="13" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BN13" s="21"/>
-      <c r="BO13" s="21"/>
+      <c r="CC11" s="16"/>
+      <c r="CD11" s="16"/>
+    </row>
+    <row r="13" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BP13" s="21"/>
       <c r="BQ13" s="21"/>
       <c r="BR13" s="21"/>
@@ -2599,266 +2641,274 @@
       <c r="BZ13" s="21"/>
       <c r="CA13" s="21"/>
       <c r="CB13" s="21"/>
-    </row>
-    <row r="14" spans="1:81" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="79" t="s">
+      <c r="CC13" s="21"/>
+      <c r="CD13" s="21"/>
+    </row>
+    <row r="14" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="81"/>
-    </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="83"/>
+    </row>
+    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="83"/>
-    </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="85"/>
+    </row>
+    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="78"/>
-    </row>
-    <row r="17" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="80"/>
+    </row>
+    <row r="17" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="78"/>
-    </row>
-    <row r="18" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="80"/>
+    </row>
+    <row r="18" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="78"/>
-    </row>
-    <row r="19" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="80"/>
+    </row>
+    <row r="19" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="78"/>
-    </row>
-    <row r="20" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="80"/>
+    </row>
+    <row r="20" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="21"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="80"/>
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
@@ -2889,8 +2939,8 @@
       <c r="BK20" s="21"/>
       <c r="BL20" s="21"/>
       <c r="BM20" s="21"/>
-      <c r="BN20" s="29"/>
-      <c r="BO20" s="29"/>
+      <c r="BN20" s="21"/>
+      <c r="BO20" s="21"/>
       <c r="BP20" s="29"/>
       <c r="BQ20" s="29"/>
       <c r="BR20" s="29"/>
@@ -2904,44 +2954,46 @@
       <c r="BZ20" s="29"/>
       <c r="CA20" s="29"/>
       <c r="CB20" s="29"/>
-    </row>
-    <row r="21" spans="2:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CC20" s="29"/>
+      <c r="CD20" s="29"/>
+    </row>
+    <row r="21" spans="2:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="76"/>
-      <c r="AI21" s="39"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="78"/>
       <c r="AJ21" s="39"/>
       <c r="AK21" s="39"/>
       <c r="AL21" s="39"/>
@@ -2972,8 +3024,8 @@
       <c r="BK21" s="39"/>
       <c r="BL21" s="39"/>
       <c r="BM21" s="39"/>
-      <c r="BN21" s="29"/>
-      <c r="BO21" s="29"/>
+      <c r="BN21" s="39"/>
+      <c r="BO21" s="39"/>
       <c r="BP21" s="29"/>
       <c r="BQ21" s="29"/>
       <c r="BR21" s="29"/>
@@ -2987,8 +3039,10 @@
       <c r="BZ21" s="29"/>
       <c r="CA21" s="29"/>
       <c r="CB21" s="29"/>
-    </row>
-    <row r="22" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CC21" s="29"/>
+      <c r="CD21" s="29"/>
+    </row>
+    <row r="22" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -3053,8 +3107,8 @@
       <c r="BK22" s="39"/>
       <c r="BL22" s="39"/>
       <c r="BM22" s="39"/>
-      <c r="BN22" s="29"/>
-      <c r="BO22" s="29"/>
+      <c r="BN22" s="39"/>
+      <c r="BO22" s="39"/>
       <c r="BP22" s="29"/>
       <c r="BQ22" s="29"/>
       <c r="BR22" s="29"/>
@@ -3068,8 +3122,10 @@
       <c r="BZ22" s="29"/>
       <c r="CA22" s="29"/>
       <c r="CB22" s="29"/>
-    </row>
-    <row r="23" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CC22" s="29"/>
+      <c r="CD22" s="29"/>
+    </row>
+    <row r="23" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
@@ -3134,8 +3190,8 @@
       <c r="BK23" s="39"/>
       <c r="BL23" s="39"/>
       <c r="BM23" s="39"/>
-      <c r="BN23" s="29"/>
-      <c r="BO23" s="29"/>
+      <c r="BN23" s="39"/>
+      <c r="BO23" s="39"/>
       <c r="BP23" s="29"/>
       <c r="BQ23" s="29"/>
       <c r="BR23" s="29"/>
@@ -3149,8 +3205,10 @@
       <c r="BZ23" s="29"/>
       <c r="CA23" s="29"/>
       <c r="CB23" s="29"/>
-    </row>
-    <row r="24" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CC23" s="29"/>
+      <c r="CD23" s="29"/>
+    </row>
+    <row r="24" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
@@ -3215,8 +3273,10 @@
       <c r="BK24" s="39"/>
       <c r="BL24" s="39"/>
       <c r="BM24" s="39"/>
-    </row>
-    <row r="25" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="BN24" s="39"/>
+      <c r="BO24" s="39"/>
+    </row>
+    <row r="25" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -3281,26 +3341,28 @@
       <c r="BK25" s="39"/>
       <c r="BL25" s="39"/>
       <c r="BM25" s="39"/>
+      <c r="BN25" s="39"/>
+      <c r="BO25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="BM1:BP2"/>
-    <mergeCell ref="C20:AH20"/>
+    <mergeCell ref="BO1:BR2"/>
+    <mergeCell ref="C20:AI20"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:S2"/>
-    <mergeCell ref="T1:AF2"/>
-    <mergeCell ref="AG2:AW2"/>
-    <mergeCell ref="AG1:BL1"/>
-    <mergeCell ref="AX2:BL2"/>
-    <mergeCell ref="C21:AH21"/>
-    <mergeCell ref="C17:AH17"/>
-    <mergeCell ref="C18:AH18"/>
-    <mergeCell ref="C19:AH19"/>
-    <mergeCell ref="B14:AH14"/>
-    <mergeCell ref="C15:AH15"/>
-    <mergeCell ref="C16:AH16"/>
+    <mergeCell ref="T1:AG2"/>
+    <mergeCell ref="AH2:AX2"/>
+    <mergeCell ref="AH1:BN1"/>
+    <mergeCell ref="AY2:BN2"/>
+    <mergeCell ref="C21:AI21"/>
+    <mergeCell ref="C17:AI17"/>
+    <mergeCell ref="C18:AI18"/>
+    <mergeCell ref="C19:AI19"/>
+    <mergeCell ref="B14:AI14"/>
+    <mergeCell ref="C15:AI15"/>
+    <mergeCell ref="C16:AI16"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:BL11">
+  <conditionalFormatting sqref="B4:BH4 BJ4:BN4 B5:BN11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>

--- a/docs/Статистика по команде.xlsx
+++ b/docs/Статистика по команде.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PicHub\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PicHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE98BBB6-C933-45EF-99D2-6AF974B03C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B5E81E-8B4C-4FDE-AA86-2764894C5F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пулл Задач" sheetId="3" r:id="rId1"/>
@@ -909,18 +909,72 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,60 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:CE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,86 +1330,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:83" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="92" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="98" t="s">
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="99"/>
-      <c r="BA1" s="99"/>
-      <c r="BB1" s="99"/>
-      <c r="BC1" s="99"/>
-      <c r="BD1" s="99"/>
-      <c r="BE1" s="99"/>
-      <c r="BF1" s="99"/>
-      <c r="BG1" s="99"/>
-      <c r="BH1" s="99"/>
-      <c r="BI1" s="99"/>
-      <c r="BJ1" s="99"/>
-      <c r="BK1" s="99"/>
-      <c r="BL1" s="99"/>
-      <c r="BM1" s="99"/>
-      <c r="BN1" s="100"/>
-      <c r="BO1" s="86" t="s">
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="92"/>
+      <c r="BC1" s="92"/>
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="92"/>
+      <c r="BK1" s="92"/>
+      <c r="BL1" s="92"/>
+      <c r="BM1" s="92"/>
+      <c r="BN1" s="93"/>
+      <c r="BO1" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="BP1" s="87"/>
-      <c r="BQ1" s="87"/>
-      <c r="BR1" s="88"/>
+      <c r="BP1" s="78"/>
+      <c r="BQ1" s="78"/>
+      <c r="BR1" s="79"/>
       <c r="BS1" s="21"/>
       <c r="BT1" s="21"/>
       <c r="BU1" s="21"/>
@@ -1424,80 +1424,80 @@
       <c r="CD1" s="21"/>
     </row>
     <row r="2" spans="1:83" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="98" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="99"/>
-      <c r="AP2" s="99"/>
-      <c r="AQ2" s="99"/>
-      <c r="AR2" s="99"/>
-      <c r="AS2" s="99"/>
-      <c r="AT2" s="99"/>
-      <c r="AU2" s="99"/>
-      <c r="AV2" s="99"/>
-      <c r="AW2" s="99"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="101" t="s">
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="92"/>
+      <c r="AR2" s="92"/>
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
-      <c r="BJ2" s="102"/>
-      <c r="BK2" s="102"/>
-      <c r="BL2" s="102"/>
-      <c r="BM2" s="102"/>
-      <c r="BN2" s="103"/>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="90"/>
-      <c r="BQ2" s="90"/>
-      <c r="BR2" s="91"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="95"/>
+      <c r="BB2" s="95"/>
+      <c r="BC2" s="95"/>
+      <c r="BD2" s="95"/>
+      <c r="BE2" s="95"/>
+      <c r="BF2" s="95"/>
+      <c r="BG2" s="95"/>
+      <c r="BH2" s="95"/>
+      <c r="BI2" s="95"/>
+      <c r="BJ2" s="95"/>
+      <c r="BK2" s="95"/>
+      <c r="BL2" s="95"/>
+      <c r="BM2" s="95"/>
+      <c r="BN2" s="96"/>
+      <c r="BO2" s="80"/>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
+      <c r="BR2" s="82"/>
     </row>
     <row r="3" spans="1:83" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -2012,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="S6" s="43">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="T6" s="43"/>
       <c r="U6" s="43"/>
@@ -2065,11 +2065,11 @@
       <c r="BN6" s="55"/>
       <c r="BO6" s="68">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP6" s="60">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BQ6" s="71">
         <f t="shared" si="2"/>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="BR6" s="49">
         <f t="shared" si="3"/>
-        <v>5.15</v>
+        <v>5.16</v>
       </c>
       <c r="BX6" s="16"/>
       <c r="BY6" s="16"/>
@@ -2645,270 +2645,270 @@
       <c r="CD13" s="21"/>
     </row>
     <row r="14" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="83"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="100"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="101"/>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="85"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="102"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="103"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="80"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="83"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="84"/>
     </row>
     <row r="17" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="80"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="83"/>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="83"/>
+      <c r="AI17" s="84"/>
     </row>
     <row r="18" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="80"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="84"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="80"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="84"/>
     </row>
     <row r="20" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="80"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="84"/>
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
@@ -2959,41 +2959,41 @@
     </row>
     <row r="21" spans="2:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="77"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="77"/>
-      <c r="AI21" s="78"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="97"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="97"/>
+      <c r="AH21" s="97"/>
+      <c r="AI21" s="98"/>
       <c r="AJ21" s="39"/>
       <c r="AK21" s="39"/>
       <c r="AL21" s="39"/>
@@ -3346,6 +3346,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C21:AI21"/>
+    <mergeCell ref="C17:AI17"/>
+    <mergeCell ref="C18:AI18"/>
+    <mergeCell ref="C19:AI19"/>
+    <mergeCell ref="B14:AI14"/>
+    <mergeCell ref="C15:AI15"/>
+    <mergeCell ref="C16:AI16"/>
     <mergeCell ref="BO1:BR2"/>
     <mergeCell ref="C20:AI20"/>
     <mergeCell ref="A1:A2"/>
@@ -3354,13 +3361,6 @@
     <mergeCell ref="AH2:AX2"/>
     <mergeCell ref="AH1:BN1"/>
     <mergeCell ref="AY2:BN2"/>
-    <mergeCell ref="C21:AI21"/>
-    <mergeCell ref="C17:AI17"/>
-    <mergeCell ref="C18:AI18"/>
-    <mergeCell ref="C19:AI19"/>
-    <mergeCell ref="B14:AI14"/>
-    <mergeCell ref="C15:AI15"/>
-    <mergeCell ref="C16:AI16"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:BH4 BJ4:BN4 B5:BN11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">

--- a/docs/Статистика по команде.xlsx
+++ b/docs/Статистика по команде.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PicHub\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\PicHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B5E81E-8B4C-4FDE-AA86-2764894C5F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67578F0-AA47-4468-905B-B8CF46C1781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пулл Задач" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>Барышников Илья</t>
   </si>
@@ -909,6 +909,33 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,12 +954,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,27 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB3E128-4FA6-4B2E-888B-7DF6C459E43A}">
   <dimension ref="A1:CE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,86 +1330,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:83" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="85" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="91" t="s">
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="92"/>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="92"/>
-      <c r="BB1" s="92"/>
-      <c r="BC1" s="92"/>
-      <c r="BD1" s="92"/>
-      <c r="BE1" s="92"/>
-      <c r="BF1" s="92"/>
-      <c r="BG1" s="92"/>
-      <c r="BH1" s="92"/>
-      <c r="BI1" s="92"/>
-      <c r="BJ1" s="92"/>
-      <c r="BK1" s="92"/>
-      <c r="BL1" s="92"/>
-      <c r="BM1" s="92"/>
-      <c r="BN1" s="93"/>
-      <c r="BO1" s="77" t="s">
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="99"/>
+      <c r="BD1" s="99"/>
+      <c r="BE1" s="99"/>
+      <c r="BF1" s="99"/>
+      <c r="BG1" s="99"/>
+      <c r="BH1" s="99"/>
+      <c r="BI1" s="99"/>
+      <c r="BJ1" s="99"/>
+      <c r="BK1" s="99"/>
+      <c r="BL1" s="99"/>
+      <c r="BM1" s="99"/>
+      <c r="BN1" s="100"/>
+      <c r="BO1" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="78"/>
-      <c r="BR1" s="79"/>
+      <c r="BP1" s="87"/>
+      <c r="BQ1" s="87"/>
+      <c r="BR1" s="88"/>
       <c r="BS1" s="21"/>
       <c r="BT1" s="21"/>
       <c r="BU1" s="21"/>
@@ -1424,80 +1424,80 @@
       <c r="CD1" s="21"/>
     </row>
     <row r="2" spans="1:83" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="91" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="92"/>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="94" t="s">
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="99"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="99"/>
+      <c r="AW2" s="99"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="AZ2" s="95"/>
-      <c r="BA2" s="95"/>
-      <c r="BB2" s="95"/>
-      <c r="BC2" s="95"/>
-      <c r="BD2" s="95"/>
-      <c r="BE2" s="95"/>
-      <c r="BF2" s="95"/>
-      <c r="BG2" s="95"/>
-      <c r="BH2" s="95"/>
-      <c r="BI2" s="95"/>
-      <c r="BJ2" s="95"/>
-      <c r="BK2" s="95"/>
-      <c r="BL2" s="95"/>
-      <c r="BM2" s="95"/>
-      <c r="BN2" s="96"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="81"/>
-      <c r="BR2" s="82"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
+      <c r="BH2" s="102"/>
+      <c r="BI2" s="102"/>
+      <c r="BJ2" s="102"/>
+      <c r="BK2" s="102"/>
+      <c r="BL2" s="102"/>
+      <c r="BM2" s="102"/>
+      <c r="BN2" s="103"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="90"/>
+      <c r="BQ2" s="90"/>
+      <c r="BR2" s="91"/>
     </row>
     <row r="3" spans="1:83" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -2645,270 +2645,270 @@
       <c r="CD13" s="21"/>
     </row>
     <row r="14" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="101"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="83"/>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="103"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="85"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="84"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="80"/>
     </row>
     <row r="17" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="83"/>
-      <c r="AI17" s="84"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="80"/>
     </row>
     <row r="18" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="84"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="80"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="83"/>
-      <c r="AE19" s="83"/>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="83"/>
-      <c r="AH19" s="83"/>
-      <c r="AI19" s="84"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="80"/>
     </row>
     <row r="20" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="83"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="84"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="80"/>
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
@@ -2959,41 +2959,41 @@
     </row>
     <row r="21" spans="2:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="97"/>
-      <c r="AI21" s="98"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="78"/>
       <c r="AJ21" s="39"/>
       <c r="AK21" s="39"/>
       <c r="AL21" s="39"/>
@@ -3346,13 +3346,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C21:AI21"/>
-    <mergeCell ref="C17:AI17"/>
-    <mergeCell ref="C18:AI18"/>
-    <mergeCell ref="C19:AI19"/>
-    <mergeCell ref="B14:AI14"/>
-    <mergeCell ref="C15:AI15"/>
-    <mergeCell ref="C16:AI16"/>
     <mergeCell ref="BO1:BR2"/>
     <mergeCell ref="C20:AI20"/>
     <mergeCell ref="A1:A2"/>
@@ -3361,6 +3354,13 @@
     <mergeCell ref="AH2:AX2"/>
     <mergeCell ref="AH1:BN1"/>
     <mergeCell ref="AY2:BN2"/>
+    <mergeCell ref="C21:AI21"/>
+    <mergeCell ref="C17:AI17"/>
+    <mergeCell ref="C18:AI18"/>
+    <mergeCell ref="C19:AI19"/>
+    <mergeCell ref="B14:AI14"/>
+    <mergeCell ref="C15:AI15"/>
+    <mergeCell ref="C16:AI16"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:BH4 BJ4:BN4 B5:BN11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -3378,19 +3378,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB9A1FE-991C-4C85-ADC4-092465F2287F}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="14" width="3.28515625" customWidth="1"/>
+    <col min="2" max="15" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>45563</v>
@@ -3420,19 +3420,22 @@
         <v>45619</v>
       </c>
       <c r="K1" s="3">
+        <v>45622</v>
+      </c>
+      <c r="L1" s="3">
         <v>45626</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>45633</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>45640</v>
       </c>
-      <c r="N1" s="4">
+      <c r="O1" s="4">
         <v>45647</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3458,13 +3461,20 @@
       <c r="I2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="J2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="M2" s="33"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="33"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -3490,13 +3500,20 @@
       <c r="I3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
+      <c r="J3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="33">
+        <v>0</v>
+      </c>
       <c r="M3" s="33"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="33"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3522,13 +3539,20 @@
       <c r="I4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="J4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="M4" s="33"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="33"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -3554,13 +3578,20 @@
       <c r="I5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="M5" s="33"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="33"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -3586,13 +3617,20 @@
       <c r="I6" s="33">
         <v>0</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="M6" s="33"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="33"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3618,13 +3656,20 @@
       <c r="I7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="M7" s="33"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="33"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -3650,13 +3695,20 @@
       <c r="I8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="M8" s="33"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="33"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -3682,14 +3734,21 @@
       <c r="I9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:N9">
+  <conditionalFormatting sqref="B2:O9">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B2)))</formula>
     </cfRule>

--- a/docs/Статистика по команде.xlsx
+++ b/docs/Статистика по команде.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PicHub\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B5E81E-8B4C-4FDE-AA86-2764894C5F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8639DF-616A-4405-92BA-0CE0D4DC2917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пулл Задач" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
   <si>
     <t>Барышников Илья</t>
   </si>
@@ -909,6 +909,33 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,12 +954,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,27 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB3E128-4FA6-4B2E-888B-7DF6C459E43A}">
   <dimension ref="A1:CE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,86 +1330,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:83" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="85" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="91" t="s">
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="92"/>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="92"/>
-      <c r="BB1" s="92"/>
-      <c r="BC1" s="92"/>
-      <c r="BD1" s="92"/>
-      <c r="BE1" s="92"/>
-      <c r="BF1" s="92"/>
-      <c r="BG1" s="92"/>
-      <c r="BH1" s="92"/>
-      <c r="BI1" s="92"/>
-      <c r="BJ1" s="92"/>
-      <c r="BK1" s="92"/>
-      <c r="BL1" s="92"/>
-      <c r="BM1" s="92"/>
-      <c r="BN1" s="93"/>
-      <c r="BO1" s="77" t="s">
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="99"/>
+      <c r="BD1" s="99"/>
+      <c r="BE1" s="99"/>
+      <c r="BF1" s="99"/>
+      <c r="BG1" s="99"/>
+      <c r="BH1" s="99"/>
+      <c r="BI1" s="99"/>
+      <c r="BJ1" s="99"/>
+      <c r="BK1" s="99"/>
+      <c r="BL1" s="99"/>
+      <c r="BM1" s="99"/>
+      <c r="BN1" s="100"/>
+      <c r="BO1" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="78"/>
-      <c r="BR1" s="79"/>
+      <c r="BP1" s="87"/>
+      <c r="BQ1" s="87"/>
+      <c r="BR1" s="88"/>
       <c r="BS1" s="21"/>
       <c r="BT1" s="21"/>
       <c r="BU1" s="21"/>
@@ -1424,80 +1424,80 @@
       <c r="CD1" s="21"/>
     </row>
     <row r="2" spans="1:83" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="91" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="92"/>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="94" t="s">
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="99"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="99"/>
+      <c r="AW2" s="99"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="AZ2" s="95"/>
-      <c r="BA2" s="95"/>
-      <c r="BB2" s="95"/>
-      <c r="BC2" s="95"/>
-      <c r="BD2" s="95"/>
-      <c r="BE2" s="95"/>
-      <c r="BF2" s="95"/>
-      <c r="BG2" s="95"/>
-      <c r="BH2" s="95"/>
-      <c r="BI2" s="95"/>
-      <c r="BJ2" s="95"/>
-      <c r="BK2" s="95"/>
-      <c r="BL2" s="95"/>
-      <c r="BM2" s="95"/>
-      <c r="BN2" s="96"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="81"/>
-      <c r="BR2" s="82"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
+      <c r="BH2" s="102"/>
+      <c r="BI2" s="102"/>
+      <c r="BJ2" s="102"/>
+      <c r="BK2" s="102"/>
+      <c r="BL2" s="102"/>
+      <c r="BM2" s="102"/>
+      <c r="BN2" s="103"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="90"/>
+      <c r="BQ2" s="90"/>
+      <c r="BR2" s="91"/>
     </row>
     <row r="3" spans="1:83" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -2645,270 +2645,270 @@
       <c r="CD13" s="21"/>
     </row>
     <row r="14" spans="1:83" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="101"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="83"/>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="103"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="85"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="84"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="80"/>
     </row>
     <row r="17" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="83"/>
-      <c r="AI17" s="84"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="80"/>
     </row>
     <row r="18" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="84"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="80"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B19" s="65"/>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="83"/>
-      <c r="AE19" s="83"/>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="83"/>
-      <c r="AH19" s="83"/>
-      <c r="AI19" s="84"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="80"/>
     </row>
     <row r="20" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B20" s="74"/>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="83"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="84"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="80"/>
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
@@ -2959,41 +2959,41 @@
     </row>
     <row r="21" spans="2:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="97"/>
-      <c r="AI21" s="98"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="78"/>
       <c r="AJ21" s="39"/>
       <c r="AK21" s="39"/>
       <c r="AL21" s="39"/>
@@ -3346,13 +3346,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C21:AI21"/>
-    <mergeCell ref="C17:AI17"/>
-    <mergeCell ref="C18:AI18"/>
-    <mergeCell ref="C19:AI19"/>
-    <mergeCell ref="B14:AI14"/>
-    <mergeCell ref="C15:AI15"/>
-    <mergeCell ref="C16:AI16"/>
     <mergeCell ref="BO1:BR2"/>
     <mergeCell ref="C20:AI20"/>
     <mergeCell ref="A1:A2"/>
@@ -3361,6 +3354,13 @@
     <mergeCell ref="AH2:AX2"/>
     <mergeCell ref="AH1:BN1"/>
     <mergeCell ref="AY2:BN2"/>
+    <mergeCell ref="C21:AI21"/>
+    <mergeCell ref="C17:AI17"/>
+    <mergeCell ref="C18:AI18"/>
+    <mergeCell ref="C19:AI19"/>
+    <mergeCell ref="B14:AI14"/>
+    <mergeCell ref="C15:AI15"/>
+    <mergeCell ref="C16:AI16"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:BH4 BJ4:BN4 B5:BN11">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
@@ -3378,19 +3378,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB9A1FE-991C-4C85-ADC4-092465F2287F}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="14" width="3.28515625" customWidth="1"/>
+    <col min="2" max="15" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>45563</v>
@@ -3420,19 +3420,22 @@
         <v>45619</v>
       </c>
       <c r="K1" s="3">
+        <v>45622</v>
+      </c>
+      <c r="L1" s="3">
         <v>45626</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>45633</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>45640</v>
       </c>
-      <c r="N1" s="4">
+      <c r="O1" s="4">
         <v>45647</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3458,13 +3461,18 @@
       <c r="I2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="33"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -3490,13 +3498,18 @@
       <c r="I3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="33"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3522,13 +3535,18 @@
       <c r="I4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="J4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="33"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -3554,13 +3572,18 @@
       <c r="I5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="J5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="33"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -3586,13 +3609,18 @@
       <c r="I6" s="33">
         <v>0</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="J6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="33"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3618,13 +3646,18 @@
       <c r="I7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="J7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="33"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -3650,13 +3683,18 @@
       <c r="I8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="J8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="33"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -3682,14 +3720,19 @@
       <c r="I9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:N9">
+  <conditionalFormatting sqref="B2:O9">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B2)))</formula>
     </cfRule>
